--- a/optaplanner-examples/data/conferencescheduling/unsolved/216talks-18timeslots-20rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/216talks-18timeslots-20rooms.xlsx
@@ -20,8 +20,76 @@
 </workbook>
 </file>
 
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0">
+      <text>
+        <t>S160: Hands on real-time Docker
+  Gus U. Green
+  PINNED BY USER</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0">
+      <text>
+        <t>S160: Hands on real-time Docker
+  Gus U. Green
+  PINNED BY USER</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C69" authorId="0">
+      <text>
+        <t>S160: Hands on real-time Docker
+  Gus U. Green
+  PINNED BY USER</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0">
+      <text>
+        <t>S160: Hands on real-time Docker
+  Gus U. Green
+  PINNED BY USER</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12160" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12194" uniqueCount="818">
   <si>
     <t>Conference name</t>
   </si>
@@ -2793,6 +2861,9 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2945,26 +3016,60 @@
       <c r="A3" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>817</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
+      <c r="D3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells>
@@ -2974,6 +3079,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -31700,6 +31806,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -33055,11 +33164,15 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -41712,11 +41825,15 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -41869,26 +41986,60 @@
       <c r="A3" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="C3" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
+      <c r="D3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells>
@@ -41898,11 +42049,15 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/optaplanner-examples/data/conferencescheduling/unsolved/216talks-18timeslots-20rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/216talks-18timeslots-20rooms.xlsx
@@ -133,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12620" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12621" uniqueCount="861">
   <si>
     <t>Conference name</t>
   </si>
@@ -930,7 +930,7 @@
     <t>Sector tags</t>
   </si>
   <si>
-    <t>Audience type</t>
+    <t>Audience types</t>
   </si>
   <si>
     <t>Audience level</t>
@@ -2686,6 +2686,9 @@
   </si>
   <si>
     <t>Usable sessions</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
   <si>
     <t>S146: Tuning IOT-driven Weld
@@ -2702,6 +2705,9 @@
   </si>
   <si>
     <t>Sector tag</t>
+  </si>
+  <si>
+    <t>Audience type</t>
   </si>
   <si>
     <t>1</t>
@@ -3312,7 +3318,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>78</v>
@@ -3476,7 +3482,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>265</v>
+        <v>857</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>78</v>
@@ -3541,7 +3547,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -3759,13 +3765,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -3924,7 +3930,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>78</v>
@@ -3989,7 +3995,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -33571,6 +33577,24 @@
       </c>
       <c r="E5" s="2" t="n">
         <v>192.0</v>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>216.0</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>360.0</v>
       </c>
     </row>
   </sheetData>
@@ -33759,7 +33783,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -35039,7 +35063,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>78</v>
@@ -39057,7 +39081,7 @@
         <v>65</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D70" s="7" t="s">
         <v>65</v>
@@ -43700,7 +43724,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>78</v>
@@ -43765,7 +43789,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>65</v>
@@ -43824,7 +43848,7 @@
         <v>65</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>65</v>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/216talks-18timeslots-20rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/216talks-18timeslots-20rooms.xlsx
@@ -4579,7 +4579,7 @@
       <c r="C3" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -4588,7 +4588,7 @@
       <c r="F3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -4597,7 +4597,7 @@
       <c r="I3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -4606,7 +4606,7 @@
       <c r="L3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N3" s="2" t="s">
@@ -4615,7 +4615,7 @@
       <c r="O3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>65</v>
       </c>
       <c r="Q3" s="2" t="s">
@@ -4624,7 +4624,7 @@
       <c r="R3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="2" t="s">
         <v>65</v>
       </c>
       <c r="T3" s="2" t="s">
@@ -4644,7 +4644,7 @@
       <c r="C4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -4653,7 +4653,7 @@
       <c r="F4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -4662,7 +4662,7 @@
       <c r="I4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K4" s="2" t="s">
@@ -4671,7 +4671,7 @@
       <c r="L4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N4" s="2" t="s">
@@ -4680,7 +4680,7 @@
       <c r="O4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="Q4" s="2" t="s">
@@ -4689,7 +4689,7 @@
       <c r="R4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="S4" s="2" t="s">
         <v>65</v>
       </c>
       <c r="T4" s="2" t="s">
@@ -4709,7 +4709,7 @@
       <c r="C5" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -4718,7 +4718,7 @@
       <c r="F5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -4727,7 +4727,7 @@
       <c r="I5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -4736,7 +4736,7 @@
       <c r="L5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N5" s="2" t="s">
@@ -4745,7 +4745,7 @@
       <c r="O5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="2" t="s">
         <v>65</v>
       </c>
       <c r="Q5" s="2" t="s">
@@ -4754,7 +4754,7 @@
       <c r="R5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="S5" s="2" t="s">
         <v>65</v>
       </c>
       <c r="T5" s="2" t="s">
@@ -4774,7 +4774,7 @@
       <c r="C6" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -4783,7 +4783,7 @@
       <c r="F6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -4792,7 +4792,7 @@
       <c r="I6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -4801,7 +4801,7 @@
       <c r="L6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N6" s="2" t="s">
@@ -4810,7 +4810,7 @@
       <c r="O6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="Q6" s="2" t="s">
@@ -4819,7 +4819,7 @@
       <c r="R6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S6" s="3" t="s">
+      <c r="S6" s="2" t="s">
         <v>65</v>
       </c>
       <c r="T6" s="2" t="s">
@@ -4842,55 +4842,55 @@
       <c r="D7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="3" t="s">
+      <c r="H7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L7" s="3" t="s">
+      <c r="K7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O7" s="3" t="s">
+      <c r="N7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="R7" s="3" t="s">
+      <c r="Q7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R7" s="2" t="s">
         <v>65</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="T7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="U7" s="3" t="s">
+      <c r="T7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U7" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4904,7 +4904,7 @@
       <c r="C8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -4913,7 +4913,7 @@
       <c r="F8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -4922,7 +4922,7 @@
       <c r="I8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K8" s="2" t="s">
@@ -4931,7 +4931,7 @@
       <c r="L8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N8" s="2" t="s">
@@ -4940,7 +4940,7 @@
       <c r="O8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="P8" s="2" t="s">
         <v>65</v>
       </c>
       <c r="Q8" s="2" t="s">
@@ -4949,7 +4949,7 @@
       <c r="R8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="S8" s="2" t="s">
         <v>65</v>
       </c>
       <c r="T8" s="2" t="s">
@@ -4969,7 +4969,7 @@
       <c r="C9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -4978,7 +4978,7 @@
       <c r="F9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -4987,7 +4987,7 @@
       <c r="I9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K9" s="2" t="s">
@@ -4996,7 +4996,7 @@
       <c r="L9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N9" s="2" t="s">
@@ -5005,7 +5005,7 @@
       <c r="O9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="P9" s="2" t="s">
         <v>65</v>
       </c>
       <c r="Q9" s="2" t="s">
@@ -5014,7 +5014,7 @@
       <c r="R9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="S9" s="2" t="s">
         <v>65</v>
       </c>
       <c r="T9" s="2" t="s">
@@ -5034,7 +5034,7 @@
       <c r="C10" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -5043,7 +5043,7 @@
       <c r="F10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -5052,7 +5052,7 @@
       <c r="I10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K10" s="2" t="s">
@@ -5061,7 +5061,7 @@
       <c r="L10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N10" s="2" t="s">
@@ -5070,7 +5070,7 @@
       <c r="O10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="P10" s="2" t="s">
         <v>65</v>
       </c>
       <c r="Q10" s="2" t="s">
@@ -5079,7 +5079,7 @@
       <c r="R10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="S10" s="2" t="s">
         <v>65</v>
       </c>
       <c r="T10" s="2" t="s">
@@ -5099,7 +5099,7 @@
       <c r="C11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -5108,7 +5108,7 @@
       <c r="F11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -5117,7 +5117,7 @@
       <c r="I11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K11" s="2" t="s">
@@ -5126,7 +5126,7 @@
       <c r="L11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N11" s="2" t="s">
@@ -5135,7 +5135,7 @@
       <c r="O11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="P11" s="2" t="s">
         <v>65</v>
       </c>
       <c r="Q11" s="2" t="s">
@@ -5144,7 +5144,7 @@
       <c r="R11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="S11" s="2" t="s">
         <v>65</v>
       </c>
       <c r="T11" s="2" t="s">
@@ -5167,55 +5167,55 @@
       <c r="D12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="E12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I12" s="3" t="s">
+      <c r="H12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L12" s="3" t="s">
+      <c r="K12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" s="2" t="s">
         <v>65</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O12" s="3" t="s">
+      <c r="N12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12" s="2" t="s">
         <v>65</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="R12" s="3" t="s">
+      <c r="Q12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R12" s="2" t="s">
         <v>65</v>
       </c>
       <c r="S12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="U12" s="3" t="s">
+      <c r="T12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U12" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -5229,7 +5229,7 @@
       <c r="C13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -5238,7 +5238,7 @@
       <c r="F13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H13" s="2" t="s">
@@ -5247,7 +5247,7 @@
       <c r="I13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K13" s="2" t="s">
@@ -5256,7 +5256,7 @@
       <c r="L13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N13" s="2" t="s">
@@ -5265,7 +5265,7 @@
       <c r="O13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="P13" s="2" t="s">
         <v>65</v>
       </c>
       <c r="Q13" s="2" t="s">
@@ -5274,7 +5274,7 @@
       <c r="R13" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S13" s="3" t="s">
+      <c r="S13" s="2" t="s">
         <v>65</v>
       </c>
       <c r="T13" s="2" t="s">
@@ -5294,7 +5294,7 @@
       <c r="C14" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -5303,7 +5303,7 @@
       <c r="F14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -5312,7 +5312,7 @@
       <c r="I14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K14" s="2" t="s">
@@ -5321,7 +5321,7 @@
       <c r="L14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N14" s="2" t="s">
@@ -5330,7 +5330,7 @@
       <c r="O14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="2" t="s">
         <v>65</v>
       </c>
       <c r="Q14" s="2" t="s">
@@ -5339,7 +5339,7 @@
       <c r="R14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="S14" s="2" t="s">
         <v>65</v>
       </c>
       <c r="T14" s="2" t="s">
@@ -5359,7 +5359,7 @@
       <c r="C15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -5368,7 +5368,7 @@
       <c r="F15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H15" s="2" t="s">
@@ -5377,7 +5377,7 @@
       <c r="I15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K15" s="2" t="s">
@@ -5386,7 +5386,7 @@
       <c r="L15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N15" s="2" t="s">
@@ -5395,7 +5395,7 @@
       <c r="O15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="P15" s="2" t="s">
         <v>65</v>
       </c>
       <c r="Q15" s="2" t="s">
@@ -5404,7 +5404,7 @@
       <c r="R15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="S15" s="2" t="s">
         <v>65</v>
       </c>
       <c r="T15" s="2" t="s">
@@ -5424,7 +5424,7 @@
       <c r="C16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -5433,7 +5433,7 @@
       <c r="F16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -5442,7 +5442,7 @@
       <c r="I16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K16" s="2" t="s">
@@ -5451,7 +5451,7 @@
       <c r="L16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="M16" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -5460,7 +5460,7 @@
       <c r="O16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="P16" s="2" t="s">
         <v>65</v>
       </c>
       <c r="Q16" s="2" t="s">
@@ -5469,7 +5469,7 @@
       <c r="R16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S16" s="3" t="s">
+      <c r="S16" s="2" t="s">
         <v>65</v>
       </c>
       <c r="T16" s="2" t="s">
@@ -5492,55 +5492,55 @@
       <c r="D17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="E17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I17" s="3" t="s">
+      <c r="H17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>65</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L17" s="3" t="s">
+      <c r="K17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>65</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O17" s="3" t="s">
+      <c r="N17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O17" s="2" t="s">
         <v>65</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="R17" s="3" t="s">
+      <c r="Q17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R17" s="2" t="s">
         <v>65</v>
       </c>
       <c r="S17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="U17" s="3" t="s">
+      <c r="T17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U17" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -5554,7 +5554,7 @@
       <c r="C18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -5563,7 +5563,7 @@
       <c r="F18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H18" s="2" t="s">
@@ -5572,7 +5572,7 @@
       <c r="I18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K18" s="2" t="s">
@@ -5581,7 +5581,7 @@
       <c r="L18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="M18" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N18" s="2" t="s">
@@ -5590,7 +5590,7 @@
       <c r="O18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P18" s="3" t="s">
+      <c r="P18" s="2" t="s">
         <v>65</v>
       </c>
       <c r="Q18" s="2" t="s">
@@ -5599,7 +5599,7 @@
       <c r="R18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S18" s="3" t="s">
+      <c r="S18" s="2" t="s">
         <v>65</v>
       </c>
       <c r="T18" s="2" t="s">
@@ -5619,7 +5619,7 @@
       <c r="C19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -5628,7 +5628,7 @@
       <c r="F19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H19" s="2" t="s">
@@ -5637,7 +5637,7 @@
       <c r="I19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K19" s="2" t="s">
@@ -5646,7 +5646,7 @@
       <c r="L19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="M19" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N19" s="2" t="s">
@@ -5655,7 +5655,7 @@
       <c r="O19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="P19" s="2" t="s">
         <v>65</v>
       </c>
       <c r="Q19" s="2" t="s">
@@ -5664,7 +5664,7 @@
       <c r="R19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S19" s="3" t="s">
+      <c r="S19" s="2" t="s">
         <v>65</v>
       </c>
       <c r="T19" s="2" t="s">
@@ -5684,7 +5684,7 @@
       <c r="C20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -5693,7 +5693,7 @@
       <c r="F20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H20" s="2" t="s">
@@ -5702,7 +5702,7 @@
       <c r="I20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K20" s="2" t="s">
@@ -5711,7 +5711,7 @@
       <c r="L20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="M20" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -5720,7 +5720,7 @@
       <c r="O20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="P20" s="2" t="s">
         <v>65</v>
       </c>
       <c r="Q20" s="2" t="s">
@@ -5729,7 +5729,7 @@
       <c r="R20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S20" s="3" t="s">
+      <c r="S20" s="2" t="s">
         <v>65</v>
       </c>
       <c r="T20" s="2" t="s">
@@ -5749,7 +5749,7 @@
       <c r="C21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>65</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -5758,7 +5758,7 @@
       <c r="F21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="2" t="s">
         <v>65</v>
       </c>
       <c r="H21" s="2" t="s">
@@ -5767,7 +5767,7 @@
       <c r="I21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="2" t="s">
         <v>65</v>
       </c>
       <c r="K21" s="2" t="s">
@@ -5776,7 +5776,7 @@
       <c r="L21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="M21" s="2" t="s">
         <v>65</v>
       </c>
       <c r="N21" s="2" t="s">
@@ -5785,7 +5785,7 @@
       <c r="O21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="P21" s="2" t="s">
         <v>65</v>
       </c>
       <c r="Q21" s="2" t="s">
@@ -5794,7 +5794,7 @@
       <c r="R21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="S21" s="3" t="s">
+      <c r="S21" s="2" t="s">
         <v>65</v>
       </c>
       <c r="T21" s="2" t="s">
@@ -5817,55 +5817,55 @@
       <c r="D22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="E22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>65</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I22" s="3" t="s">
+      <c r="H22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>65</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="L22" s="3" t="s">
+      <c r="K22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>65</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O22" s="3" t="s">
+      <c r="N22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O22" s="2" t="s">
         <v>65</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="R22" s="3" t="s">
+      <c r="Q22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R22" s="2" t="s">
         <v>65</v>
       </c>
       <c r="S22" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="U22" s="3" t="s">
+      <c r="T22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U22" s="2" t="s">
         <v>65</v>
       </c>
     </row>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/216talks-18timeslots-20rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/216talks-18timeslots-20rooms.xlsx
@@ -2923,7 +2923,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
@@ -2945,7 +2945,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
@@ -2967,7 +2967,7 @@
         <v>17</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>10.0</v>
+        <v>100.0</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
@@ -2989,7 +2989,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>22</v>
@@ -3000,7 +3000,7 @@
         <v>23</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>24</v>
@@ -3011,7 +3011,7 @@
         <v>25</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>22</v>
@@ -3022,7 +3022,7 @@
         <v>26</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>24</v>
@@ -3033,7 +3033,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>28</v>
@@ -3044,7 +3044,7 @@
         <v>29</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>30</v>
@@ -3055,7 +3055,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>28</v>
@@ -3066,7 +3066,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>30</v>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/216talks-18timeslots-20rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/216talks-18timeslots-20rooms.xlsx
@@ -11,14 +11,16 @@
     <sheet name="Rooms" r:id="rId5" sheetId="3"/>
     <sheet name="Speakers" r:id="rId6" sheetId="4"/>
     <sheet name="Talks" r:id="rId7" sheetId="5"/>
-    <sheet name="Score view" r:id="rId8" sheetId="6"/>
+    <sheet name="Infeasible view" r:id="rId8" sheetId="6"/>
     <sheet name="Rooms view" r:id="rId9" sheetId="7"/>
     <sheet name="Speakers view" r:id="rId10" sheetId="8"/>
     <sheet name="Theme tracks view" r:id="rId11" sheetId="9"/>
     <sheet name="Sectors view" r:id="rId12" sheetId="10"/>
-    <sheet name="Audience type view" r:id="rId13" sheetId="11"/>
-    <sheet name="Audience level view" r:id="rId14" sheetId="12"/>
+    <sheet name="Audience types view" r:id="rId13" sheetId="11"/>
+    <sheet name="Audience levels view" r:id="rId14" sheetId="12"/>
     <sheet name="Contents view" r:id="rId15" sheetId="13"/>
+    <sheet name="Languages view" r:id="rId16" sheetId="14"/>
+    <sheet name="Score view" r:id="rId17" sheetId="15"/>
   </sheets>
 </workbook>
 </file>
@@ -31,9 +33,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t>S146: Tuning IOT-driven Weld
-  Hugo V. Jones
-  PINNED BY USER</t>
+        <t xml:space="preserve">S146: Tuning IOT-driven Weld
+    Hugo V. Jones
+PINNED BY USER
+</t>
       </text>
     </comment>
   </commentList>
@@ -48,9 +51,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t>S146: Tuning IOT-driven Weld
-  Hugo V. Jones
-  PINNED BY USER</t>
+        <t xml:space="preserve">S146: Tuning IOT-driven Weld
+    Hugo V. Jones
+PINNED BY USER
+</t>
       </text>
     </comment>
   </commentList>
@@ -65,9 +69,28 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t>S146: Tuning IOT-driven Weld
-  Hugo V. Jones
-  PINNED BY USER</t>
+        <t xml:space="preserve">S146: Tuning IOT-driven Weld
+    Hugo V. Jones
+PINNED BY USER
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0">
+      <text>
+        <t xml:space="preserve">S146: Tuning IOT-driven Weld
+    Hugo V. Jones
+PINNED BY USER
+</t>
       </text>
     </comment>
   </commentList>
@@ -82,9 +105,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t>S146: Tuning IOT-driven Weld
-  Hugo V. Jones
-  PINNED BY USER</t>
+        <t xml:space="preserve">S146: Tuning IOT-driven Weld
+    Hugo V. Jones
+PINNED BY USER
+</t>
       </text>
     </comment>
   </commentList>
@@ -99,9 +123,10 @@
   <commentList>
     <comment ref="C70" authorId="0">
       <text>
-        <t>S146: Tuning IOT-driven Weld
-  Hugo V. Jones
-  PINNED BY USER</t>
+        <t xml:space="preserve">S146: Tuning IOT-driven Weld
+    Hugo V. Jones
+PINNED BY USER
+</t>
       </text>
     </comment>
   </commentList>
@@ -116,16 +141,18 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t>S146: Tuning IOT-driven Weld
-  Hugo V. Jones
-  PINNED BY USER</t>
+        <t xml:space="preserve">S146: Tuning IOT-driven Weld
+    Hugo V. Jones
+PINNED BY USER
+</t>
       </text>
     </comment>
     <comment ref="C4" authorId="0">
       <text>
-        <t>S146: Tuning IOT-driven Weld
-  Hugo V. Jones
-  PINNED BY USER</t>
+        <t xml:space="preserve">S146: Tuning IOT-driven Weld
+    Hugo V. Jones
+PINNED BY USER
+</t>
       </text>
     </comment>
   </commentList>
@@ -133,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12621" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12683" uniqueCount="864">
   <si>
     <t>Conference name</t>
   </si>
@@ -2717,6 +2744,15 @@
   </si>
   <si>
     <t>S146 (level 1)</t>
+  </si>
+  <si>
+    <t>Constraint match</t>
+  </si>
+  <si>
+    <t>Match score</t>
+  </si>
+  <si>
+    <t>Total score</t>
   </si>
 </sst>
 </file>
@@ -2828,6 +2864,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
@@ -4055,6 +4099,273 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" width="11.86328125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" ht="15.0" customHeight="true">
+      <c r="A3" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>854</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>846</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:S1"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="16.8125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.296875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.08203125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1"/>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>863</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -33594,7 +33905,7 @@
         <v>20.0</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>360.0</v>
+        <v>216.0</v>
       </c>
     </row>
   </sheetData>
@@ -33775,7 +34086,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" ht="60.0" customHeight="true">
+    <row r="3" ht="45.0" customHeight="true">
       <c r="A3" s="2" t="s">
         <v>84</v>
       </c>
@@ -33834,7 +34145,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" ht="60.0" customHeight="true">
+    <row r="4" ht="45.0" customHeight="true">
       <c r="A4" s="2" t="s">
         <v>86</v>
       </c>
@@ -33893,7 +34204,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" ht="60.0" customHeight="true">
+    <row r="5" ht="45.0" customHeight="true">
       <c r="A5" s="2" t="s">
         <v>87</v>
       </c>
@@ -33952,7 +34263,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" ht="60.0" customHeight="true">
+    <row r="6" ht="45.0" customHeight="true">
       <c r="A6" s="2" t="s">
         <v>89</v>
       </c>
@@ -34011,7 +34322,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" ht="60.0" customHeight="true">
+    <row r="7" ht="45.0" customHeight="true">
       <c r="A7" s="2" t="s">
         <v>90</v>
       </c>
@@ -34070,7 +34381,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" ht="60.0" customHeight="true">
+    <row r="8" ht="45.0" customHeight="true">
       <c r="A8" s="2" t="s">
         <v>91</v>
       </c>
@@ -34129,7 +34440,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" ht="60.0" customHeight="true">
+    <row r="9" ht="45.0" customHeight="true">
       <c r="A9" s="2" t="s">
         <v>92</v>
       </c>
@@ -34188,7 +34499,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" ht="60.0" customHeight="true">
+    <row r="10" ht="45.0" customHeight="true">
       <c r="A10" s="2" t="s">
         <v>93</v>
       </c>
@@ -34247,7 +34558,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" ht="60.0" customHeight="true">
+    <row r="11" ht="45.0" customHeight="true">
       <c r="A11" s="2" t="s">
         <v>94</v>
       </c>
@@ -34306,7 +34617,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" ht="60.0" customHeight="true">
+    <row r="12" ht="45.0" customHeight="true">
       <c r="A12" s="2" t="s">
         <v>95</v>
       </c>
@@ -34365,7 +34676,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" ht="60.0" customHeight="true">
+    <row r="13" ht="45.0" customHeight="true">
       <c r="A13" s="2" t="s">
         <v>96</v>
       </c>
@@ -34424,7 +34735,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" ht="60.0" customHeight="true">
+    <row r="14" ht="45.0" customHeight="true">
       <c r="A14" s="2" t="s">
         <v>97</v>
       </c>
@@ -34483,7 +34794,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" ht="60.0" customHeight="true">
+    <row r="15" ht="45.0" customHeight="true">
       <c r="A15" s="2" t="s">
         <v>98</v>
       </c>
@@ -34542,7 +34853,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" ht="60.0" customHeight="true">
+    <row r="16" ht="45.0" customHeight="true">
       <c r="A16" s="2" t="s">
         <v>99</v>
       </c>
@@ -34601,7 +34912,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" ht="60.0" customHeight="true">
+    <row r="17" ht="45.0" customHeight="true">
       <c r="A17" s="2" t="s">
         <v>100</v>
       </c>
@@ -34660,7 +34971,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" ht="60.0" customHeight="true">
+    <row r="18" ht="45.0" customHeight="true">
       <c r="A18" s="2" t="s">
         <v>101</v>
       </c>
@@ -34719,7 +35030,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" ht="60.0" customHeight="true">
+    <row r="19" ht="45.0" customHeight="true">
       <c r="A19" s="2" t="s">
         <v>102</v>
       </c>
@@ -34778,7 +35089,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" ht="60.0" customHeight="true">
+    <row r="20" ht="45.0" customHeight="true">
       <c r="A20" s="2" t="s">
         <v>103</v>
       </c>
@@ -34837,7 +35148,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" ht="60.0" customHeight="true">
+    <row r="21" ht="45.0" customHeight="true">
       <c r="A21" s="2" t="s">
         <v>104</v>
       </c>
@@ -34896,7 +35207,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" ht="60.0" customHeight="true">
+    <row r="22" ht="45.0" customHeight="true">
       <c r="A22" s="2" t="s">
         <v>105</v>
       </c>
@@ -34982,24 +35293,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="14.4296875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="11.86328125" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" width="11.86328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.0" customWidth="true"/>
+    <col min="3" max="3" width="20.0" customWidth="true"/>
+    <col min="4" max="4" width="20.0" customWidth="true"/>
+    <col min="5" max="5" width="20.0" customWidth="true"/>
+    <col min="6" max="6" width="20.0" customWidth="true"/>
+    <col min="7" max="7" width="20.0" customWidth="true"/>
+    <col min="8" max="8" width="20.0" customWidth="true"/>
+    <col min="9" max="9" width="20.0" customWidth="true"/>
+    <col min="10" max="10" width="20.0" customWidth="true"/>
+    <col min="11" max="11" width="20.0" customWidth="true"/>
+    <col min="12" max="12" width="20.0" customWidth="true"/>
+    <col min="13" max="13" width="20.0" customWidth="true"/>
+    <col min="14" max="14" width="20.0" customWidth="true"/>
+    <col min="15" max="15" width="20.0" customWidth="true"/>
+    <col min="16" max="16" width="20.0" customWidth="true"/>
+    <col min="17" max="17" width="20.0" customWidth="true"/>
+    <col min="18" max="18" width="20.0" customWidth="true"/>
+    <col min="19" max="19" width="20.0" customWidth="true"/>
+    <col min="20" max="20" width="20.0" customWidth="true"/>
+    <col min="21" max="21" width="20.0" customWidth="true"/>
+    <col min="22" max="22" width="20.0" customWidth="true"/>
+    <col min="23" max="23" width="20.0" customWidth="true"/>
+    <col min="24" max="24" width="20.0" customWidth="true"/>
+    <col min="25" max="25" width="20.0" customWidth="true"/>
+    <col min="26" max="26" width="20.0" customWidth="true"/>
+    <col min="27" max="27" width="20.0" customWidth="true"/>
+    <col min="28" max="28" width="20.0" customWidth="true"/>
+    <col min="29" max="29" width="20.0" customWidth="true"/>
+    <col min="30" max="30" width="20.0" customWidth="true"/>
+    <col min="31" max="31" width="20.0" customWidth="true"/>
+    <col min="32" max="32" width="20.0" customWidth="true"/>
+    <col min="33" max="33" width="20.0" customWidth="true"/>
+    <col min="34" max="34" width="20.0" customWidth="true"/>
+    <col min="35" max="35" width="20.0" customWidth="true"/>
+    <col min="36" max="36" width="20.0" customWidth="true"/>
+    <col min="37" max="37" width="20.0" customWidth="true"/>
+    <col min="38" max="38" width="20.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/optaplanner-examples/data/conferencescheduling/unsolved/216talks-18timeslots-20rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/216talks-18timeslots-20rooms.xlsx
@@ -217,40 +217,40 @@
     <t>Soft reward per 2 talks that have the same timeslot and a different language</t>
   </si>
   <si>
-    <t>Speaker preferred timeslot tag</t>
+    <t>Speaker preferred timeslot tags</t>
   </si>
   <si>
     <t>Soft penalty per missing preferred tag in a talk's timeslot</t>
   </si>
   <si>
-    <t>Speaker undesired timeslot tag</t>
+    <t>Speaker undesired timeslot tags</t>
   </si>
   <si>
     <t>Soft penalty per undesired tag in a talk's timeslot</t>
   </si>
   <si>
-    <t>Talk preferred timeslot tag</t>
-  </si>
-  <si>
-    <t>Talk undesired timeslot tag</t>
-  </si>
-  <si>
-    <t>Speaker preferred room tag</t>
+    <t>Talk preferred timeslot tags</t>
+  </si>
+  <si>
+    <t>Talk undesired timeslot tags</t>
+  </si>
+  <si>
+    <t>Speaker preferred room tags</t>
   </si>
   <si>
     <t>Soft penalty per missing preferred tag in a talk's room</t>
   </si>
   <si>
-    <t>Speaker undesired room tag</t>
+    <t>Speaker undesired room tags</t>
   </si>
   <si>
     <t>Soft penalty per undesired tag in a talk's room</t>
   </si>
   <si>
-    <t>Talk preferred room tag</t>
-  </si>
-  <si>
-    <t>Talk undesired room tag</t>
+    <t>Talk preferred room tags</t>
+  </si>
+  <si>
+    <t>Talk undesired room tags</t>
   </si>
   <si>
     <t>Same day talks</t>
@@ -301,43 +301,43 @@
     <t>Hard penalty per pair of talks with the same speaker in overlapping timeslots</t>
   </si>
   <si>
-    <t>Speaker required timeslot tag</t>
+    <t>Speaker required timeslot tags</t>
   </si>
   <si>
     <t>Hard penalty per missing required tag in a talk's timeslot</t>
   </si>
   <si>
-    <t>Speaker prohibited timeslot tag</t>
+    <t>Speaker prohibited timeslot tags</t>
   </si>
   <si>
     <t>Hard penalty per prohibited tag in a talk's timeslot</t>
   </si>
   <si>
-    <t>Talk required timeslot tag</t>
-  </si>
-  <si>
-    <t>Talk prohibited timeslot tag</t>
-  </si>
-  <si>
-    <t>Speaker required room tag</t>
+    <t>Talk required timeslot tags</t>
+  </si>
+  <si>
+    <t>Talk prohibited timeslot tags</t>
+  </si>
+  <si>
+    <t>Speaker required room tags</t>
   </si>
   <si>
     <t>Hard penalty per missing required tag in a talk's room</t>
   </si>
   <si>
-    <t>Speaker prohibited room tag</t>
+    <t>Speaker prohibited room tags</t>
   </si>
   <si>
     <t>Hard penalty per prohibited tag in a talk's room</t>
   </si>
   <si>
-    <t>Talk required room tag</t>
-  </si>
-  <si>
-    <t>Talk prohibited room tag</t>
-  </si>
-  <si>
-    <t>Talk mutually-exclusive-talks tag</t>
+    <t>Talk required room tags</t>
+  </si>
+  <si>
+    <t>Talk prohibited room tags</t>
+  </si>
+  <si>
+    <t>Talk mutually-exclusive-talks tags</t>
   </si>
   <si>
     <t>Hard penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/216talks-18timeslots-20rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/216talks-18timeslots-20rooms.xlsx
@@ -276,7 +276,7 @@
     <t>Popular talks</t>
   </si>
   <si>
-    <t>Soft penalty per 2 talks where the less popular one (has lower number of likes) is assigned a larger room than the more popular talk</t>
+    <t>Soft penalty per 2 talks where the less popular one (has lower favorite count) is assigned a larger room than the more popular talk</t>
   </si>
   <si>
     <t>Crowd control</t>
@@ -1017,7 +1017,7 @@
     <t>Prerequisite talks codes</t>
   </si>
   <si>
-    <t>Number of likes</t>
+    <t>Favorite count</t>
   </si>
   <si>
     <t>Crowd control risk</t>
@@ -18599,7 +18599,7 @@
     <col min="18" max="18" width="22.84375" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="31.2734375" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="26.23046875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.5390625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.25390625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="20.140625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.65234375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.14453125" customWidth="true" bestFit="true"/>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/216talks-18timeslots-20rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/216talks-18timeslots-20rooms.xlsx
@@ -285,6 +285,12 @@
     <t>Soft penalty per talks with crowd control risk greater than zero that are not in pairs</t>
   </si>
   <si>
+    <t>Talk mutually-exclusive-talks tags</t>
+  </si>
+  <si>
+    <t>Hard penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>
+  </si>
+  <si>
     <t>Talk type of timeslot</t>
   </si>
   <si>
@@ -355,12 +361,6 @@
   </si>
   <si>
     <t>Talk prohibited room tags</t>
-  </si>
-  <si>
-    <t>Talk mutually-exclusive-talks tags</t>
-  </si>
-  <si>
-    <t>Hard penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>
   </si>
   <si>
     <t>Talk prerequisite talks</t>
@@ -2962,7 +2962,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
@@ -3211,109 +3211,99 @@
         <v>39</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>10000.0</v>
+        <v>1.0</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
+    <row r="25"/>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>10000.0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>10.0</v>
+        <v>10000.0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.0</v>
+        <v>10000.0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34">
@@ -3324,40 +3314,40 @@
         <v>1.0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B36" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38">
@@ -3368,17 +3358,28 @@
         <v>1.0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3393,7 +3394,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -3557,7 +3558,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -3781,7 +3782,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -4005,7 +4006,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -4229,7 +4230,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -4435,12 +4436,6 @@
       <c r="S3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>858</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells>
@@ -4459,50 +4454,58 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="19.0703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.73828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.15625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>875</v>
-      </c>
-    </row>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+    <row r="5">
+      <c r="A5" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -4512,7 +4515,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3.0" ySplit="1.0" state="frozen" topLeftCell="D2" activePane="bottomRight"/>
@@ -4859,7 +4862,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -6401,7 +6404,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AB146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -18570,7 +18573,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AB217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -36630,7 +36633,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
@@ -36735,7 +36738,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -38099,7 +38102,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -46779,7 +46782,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/216talks-18timeslots-20rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/216talks-18timeslots-20rooms.xlsx
@@ -21,6 +21,9 @@
     <sheet name="Contents view" r:id="rId15" sheetId="13"/>
     <sheet name="Languages view" r:id="rId16" sheetId="14"/>
     <sheet name="Score view" r:id="rId17" sheetId="15"/>
+    <sheet name="Mon 2018-10-01" r:id="rId18" sheetId="16"/>
+    <sheet name="Tue 2018-10-02" r:id="rId19" sheetId="17"/>
+    <sheet name="Wed 2018-10-03" r:id="rId20" sheetId="18"/>
   </sheets>
 </workbook>
 </file>
@@ -33,11 +36,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S056: Deliver stable JUnit
+        <t xml:space="preserve">S056-IoT: Deliver stable JUnit
     Hugo V. King
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -53,11 +55,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S056: Deliver stable JUnit
+        <t xml:space="preserve">S056-IoT: Deliver stable JUnit
     Hugo V. King
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -73,11 +74,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S056: Deliver stable JUnit
+        <t xml:space="preserve">S056-IoT: Deliver stable JUnit
     Hugo V. King
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -93,7 +93,26 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S056: Deliver stable JUnit
+        <t xml:space="preserve">S056-IoT: Deliver stable JUnit
+    Hugo V. King
+PINNED BY USER
+-10soft total
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0">
+      <text>
+        <t xml:space="preserve">S056-IoT: Deliver stable JUnit
     Hugo V. King
 PINNED BY USER
 -10soft total
@@ -113,7 +132,7 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S056: Deliver stable JUnit
+        <t xml:space="preserve">S056-IoT: Deliver stable JUnit
     Hugo V. King
 PINNED BY USER
 -10soft total
@@ -133,11 +152,10 @@
   <commentList>
     <comment ref="C80" authorId="0">
       <text>
-        <t xml:space="preserve">S056: Deliver stable JUnit
+        <t xml:space="preserve">S056-IoT: Deliver stable JUnit
     Hugo V. King
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -153,11 +171,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S056: Deliver stable JUnit
+        <t xml:space="preserve">S056-IoT: Deliver stable JUnit
     Hugo V. King
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -166,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13105" uniqueCount="878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13133" uniqueCount="879">
   <si>
     <t>Conference name</t>
   </si>
@@ -288,7 +305,7 @@
     <t>Talk mutually-exclusive-talks tags</t>
   </si>
   <si>
-    <t>Hard penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>
+    <t>Medium penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>
   </si>
   <si>
     <t>Talk type of timeslot</t>
@@ -2801,6 +2818,10 @@
   </si>
   <si>
     <t xml:space="preserve">    S056</t>
+  </si>
+  <si>
+    <t>Deliver stable JUnit
+Hugo V. King</t>
   </si>
 </sst>
 </file>
@@ -2822,7 +2843,7 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2857,6 +2878,46 @@
         <fgColor rgb="FCAF3E"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="8AE234"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FCE94F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="729FCF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E9B96E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="73D216"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EDD400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="3465A4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C17D11"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2870,7 +2931,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment wrapText="true" vertical="center"/>
@@ -2894,6 +2955,33 @@
       <alignment wrapText="true" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="true">
       <alignment wrapText="true" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2925,6 +3013,18 @@
 </file>
 
 <file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
@@ -4506,6 +4606,203 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="17.94140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.0" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" ht="45.0" customHeight="true">
+      <c r="A2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" ht="45.0" customHeight="true">
+      <c r="A3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="4" ht="45.0" customHeight="true">
+      <c r="A4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" ht="45.0" customHeight="true">
+      <c r="A5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" ht="45.0" customHeight="true">
+      <c r="A6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" ht="45.0" customHeight="true">
+      <c r="A7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="17.3515625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" ht="45.0" customHeight="true">
+      <c r="A2" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" ht="45.0" customHeight="true">
+      <c r="A3" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" ht="45.0" customHeight="true">
+      <c r="A4" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" ht="45.0" customHeight="true">
+      <c r="A5" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" ht="45.0" customHeight="true">
+      <c r="A6" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" ht="45.0" customHeight="true">
+      <c r="A7" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="18.12890625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" ht="45.0" customHeight="true">
+      <c r="A2" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" ht="45.0" customHeight="true">
+      <c r="A3" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" ht="45.0" customHeight="true">
+      <c r="A4" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" ht="45.0" customHeight="true">
+      <c r="A5" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" ht="45.0" customHeight="true">
+      <c r="A6" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" ht="45.0" customHeight="true">
+      <c r="A7" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/216talks-18timeslots-20rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/216talks-18timeslots-20rooms.xlsx
@@ -21,6 +21,9 @@
     <sheet name="Contents view" r:id="rId15" sheetId="13"/>
     <sheet name="Languages view" r:id="rId16" sheetId="14"/>
     <sheet name="Score view" r:id="rId17" sheetId="15"/>
+    <sheet name="Mon 2018-10-01" r:id="rId18" sheetId="16"/>
+    <sheet name="Tue 2018-10-02" r:id="rId19" sheetId="17"/>
+    <sheet name="Wed 2018-10-03" r:id="rId20" sheetId="18"/>
   </sheets>
 </workbook>
 </file>
@@ -33,11 +36,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S056: Deliver stable JUnit
+        <t xml:space="preserve">S056-IoT: Deliver stable JUnit
     Hugo V. King
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -53,11 +55,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S056: Deliver stable JUnit
+        <t xml:space="preserve">S056-IoT: Deliver stable JUnit
     Hugo V. King
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -73,11 +74,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S056: Deliver stable JUnit
+        <t xml:space="preserve">S056-IoT: Deliver stable JUnit
     Hugo V. King
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -93,7 +93,26 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S056: Deliver stable JUnit
+        <t xml:space="preserve">S056-IoT: Deliver stable JUnit
+    Hugo V. King
+PINNED BY USER
+-10soft total
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0">
+      <text>
+        <t xml:space="preserve">S056-IoT: Deliver stable JUnit
     Hugo V. King
 PINNED BY USER
 -10soft total
@@ -113,7 +132,7 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S056: Deliver stable JUnit
+        <t xml:space="preserve">S056-IoT: Deliver stable JUnit
     Hugo V. King
 PINNED BY USER
 -10soft total
@@ -133,11 +152,10 @@
   <commentList>
     <comment ref="C80" authorId="0">
       <text>
-        <t xml:space="preserve">S056: Deliver stable JUnit
+        <t xml:space="preserve">S056-IoT: Deliver stable JUnit
     Hugo V. King
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -153,11 +171,10 @@
   <commentList>
     <comment ref="C3" authorId="0">
       <text>
-        <t xml:space="preserve">S056: Deliver stable JUnit
+        <t xml:space="preserve">S056-IoT: Deliver stable JUnit
     Hugo V. King
 PINNED BY USER
 -10soft total
-    -10soft for 1 Crowd controls
 </t>
       </text>
     </comment>
@@ -166,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13105" uniqueCount="878">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13133" uniqueCount="879">
   <si>
     <t>Conference name</t>
   </si>
@@ -285,6 +302,12 @@
     <t>Soft penalty per talks with crowd control risk greater than zero that are not in pairs</t>
   </si>
   <si>
+    <t>Talk mutually-exclusive-talks tags</t>
+  </si>
+  <si>
+    <t>Medium penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>
+  </si>
+  <si>
     <t>Talk type of timeslot</t>
   </si>
   <si>
@@ -355,12 +378,6 @@
   </si>
   <si>
     <t>Talk prohibited room tags</t>
-  </si>
-  <si>
-    <t>Talk mutually-exclusive-talks tags</t>
-  </si>
-  <si>
-    <t>Hard penalty per two talks that share the same Mutually exclusive talks tag that are scheduled in overlapping timeslots</t>
   </si>
   <si>
     <t>Talk prerequisite talks</t>
@@ -2801,6 +2818,10 @@
   </si>
   <si>
     <t xml:space="preserve">    S056</t>
+  </si>
+  <si>
+    <t>Deliver stable JUnit
+Hugo V. King</t>
   </si>
 </sst>
 </file>
@@ -2822,7 +2843,7 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2857,6 +2878,46 @@
         <fgColor rgb="FCAF3E"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="8AE234"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FCE94F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="729FCF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E9B96E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="73D216"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="EDD400"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="3465A4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C17D11"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2870,7 +2931,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment wrapText="true" vertical="center"/>
@@ -2894,6 +2955,33 @@
       <alignment wrapText="true" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="true">
+      <alignment wrapText="true" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="true">
       <alignment wrapText="true" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2925,6 +3013,18 @@
 </file>
 
 <file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
@@ -2962,7 +3062,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
@@ -3211,109 +3311,99 @@
         <v>39</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>10000.0</v>
+        <v>1.0</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="2" t="n">
-        <v>10000.0</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
+    <row r="25"/>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>10000.0</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>10.0</v>
+        <v>10000.0</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.0</v>
+        <v>10000.0</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.0</v>
+        <v>10.0</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34">
@@ -3324,40 +3414,40 @@
         <v>1.0</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B35" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B36" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38">
@@ -3368,17 +3458,28 @@
         <v>1.0</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3393,7 +3494,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -3557,7 +3658,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -3781,7 +3882,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -4005,7 +4106,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -4229,7 +4330,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -4435,12 +4536,6 @@
       <c r="S3" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>858</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells>
@@ -4459,7 +4554,71 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="19.0703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.15625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="2"/>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
@@ -4468,41 +4627,182 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.0703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.73828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="17.94140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="15.0" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1"/>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>874</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="4">
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" ht="45.0" customHeight="true">
+      <c r="A2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" ht="45.0" customHeight="true">
+      <c r="A3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="4" ht="45.0" customHeight="true">
       <c r="A4" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" ht="45.0" customHeight="true">
+      <c r="A5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" ht="45.0" customHeight="true">
+      <c r="A6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" ht="45.0" customHeight="true">
+      <c r="A7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="17.3515625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" ht="45.0" customHeight="true">
+      <c r="A2" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" ht="45.0" customHeight="true">
+      <c r="A3" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" ht="45.0" customHeight="true">
+      <c r="A4" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" ht="45.0" customHeight="true">
+      <c r="A5" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" ht="45.0" customHeight="true">
+      <c r="A6" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" ht="45.0" customHeight="true">
+      <c r="A7" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FCE94F"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="18.12890625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" ht="45.0" customHeight="true">
+      <c r="A2" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" ht="45.0" customHeight="true">
+      <c r="A3" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" ht="45.0" customHeight="true">
+      <c r="A4" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" ht="45.0" customHeight="true">
+      <c r="A5" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" ht="45.0" customHeight="true">
+      <c r="A6" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" ht="45.0" customHeight="true">
+      <c r="A7" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -4512,7 +4812,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3.0" ySplit="1.0" state="frozen" topLeftCell="D2" activePane="bottomRight"/>
@@ -4859,7 +5159,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:W22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -6401,7 +6701,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AB146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -18570,7 +18870,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AB217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -36630,7 +36930,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="1.0" state="frozen" topLeftCell="B2" activePane="bottomRight"/>
@@ -36735,7 +37035,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -38099,7 +38399,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>
@@ -46779,7 +47079,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="2.0" state="frozen" topLeftCell="B3" activePane="bottomRight"/>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/216talks-18timeslots-20rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/216talks-18timeslots-20rooms.xlsx
@@ -3148,7 +3148,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
-      <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
+      <pane xSplit="1.0" ySplit="4.0" state="frozen" topLeftCell="B5" activePane="bottomRight"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>

--- a/optaplanner-examples/data/conferencescheduling/unsolved/216talks-18timeslots-20rooms.xlsx
+++ b/optaplanner-examples/data/conferencescheduling/unsolved/216talks-18timeslots-20rooms.xlsx
@@ -47,7 +47,7 @@
         <t xml:space="preserve">S186-Mobile: Tuning IOT-driven Android
     Chad R. Li, Dan S. Poe
 PINNED BY USER
--2550soft total
+-1650soft total
 </t>
       </text>
     </comment>
@@ -66,7 +66,7 @@
         <t xml:space="preserve">S186-Mobile: Tuning IOT-driven Android
     Chad R. Li, Dan S. Poe
 PINNED BY USER
--2550soft total
+-1650soft total
 </t>
       </text>
     </comment>
@@ -93,7 +93,7 @@
         <t xml:space="preserve">S186-Mobile: Tuning IOT-driven Android
     Chad R. Li, Dan S. Poe
 PINNED BY USER
--2550soft total
+-1650soft total
 </t>
       </text>
     </comment>
@@ -128,7 +128,7 @@
         <t xml:space="preserve">S186-Mobile: Tuning IOT-driven Android
     Chad R. Li, Dan S. Poe
 PINNED BY USER
--2550soft total
+-1650soft total
 </t>
       </text>
     </comment>
@@ -147,10 +147,9 @@
         <t xml:space="preserve">S186-Mobile: Tuning IOT-driven Android
     Chad R. Li, Dan S. Poe
 PINNED BY USER
--2550soft total
+-1650soft total
     -1650soft for 1 Popular talkss
         S013
-    -900soft for 1 Talk preferred room tagss
 </t>
       </text>
     </comment>
@@ -179,10 +178,9 @@
         <t xml:space="preserve">S186-Mobile: Tuning IOT-driven Android
     Chad R. Li, Dan S. Poe
 PINNED BY USER
--2550soft total
+-1650soft total
     -1650soft for 1 Popular talkss
         S013
-    -900soft for 1 Talk preferred room tagss
 </t>
       </text>
     </comment>
@@ -219,7 +217,7 @@
         <t xml:space="preserve">S186-Mobile: Tuning IOT-driven Android
     Chad R. Li, Dan S. Poe
 PINNED BY USER
--2550soft total
+-1650soft total
 </t>
       </text>
     </comment>
@@ -228,7 +226,7 @@
         <t xml:space="preserve">S186-Mobile: Tuning IOT-driven Android
     Chad R. Li, Dan S. Poe
 PINNED BY USER
--2550soft total
+-1650soft total
 </t>
       </text>
     </comment>
@@ -247,7 +245,7 @@
         <t xml:space="preserve">S186-Mobile: Tuning IOT-driven Android
     Chad R. Li, Dan S. Poe
 PINNED BY USER
--2550soft total
+-1650soft total
 </t>
       </text>
     </comment>
@@ -264,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14329" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14327" uniqueCount="926">
   <si>
     <t>Conference name</t>
   </si>
@@ -1268,9 +1266,6 @@
     <t>OptaPlanner</t>
   </si>
   <si>
-    <t>Large, Recorded</t>
-  </si>
-  <si>
     <t>S005</t>
   </si>
   <si>
@@ -2927,7 +2922,7 @@
     <t>Score</t>
   </si>
   <si>
-    <t>-428init/-2550soft</t>
+    <t>-428init/-1650soft</t>
   </si>
   <si>
     <t>Count</t>
@@ -3029,9 +3024,6 @@
   </si>
   <si>
     <t>20soft</t>
-  </si>
-  <si>
-    <t>-900soft</t>
   </si>
   <si>
     <t>10soft</t>
@@ -3867,7 +3859,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>108</v>
@@ -4031,7 +4023,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>108</v>
@@ -4093,10 +4085,10 @@
         <v>321</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>895</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>896</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>897</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>93</v>
@@ -4314,13 +4306,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>93</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>93</v>
@@ -4373,10 +4365,10 @@
     </row>
     <row r="4" ht="15.0" customHeight="true">
       <c r="A4" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>93</v>
@@ -4538,7 +4530,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>108</v>
@@ -4597,13 +4589,13 @@
     </row>
     <row r="3" ht="15.0" customHeight="true">
       <c r="A3" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>93</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>93</v>
@@ -4656,10 +4648,10 @@
     </row>
     <row r="4" ht="15.0" customHeight="true">
       <c r="A4" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>93</v>
@@ -4883,10 +4875,10 @@
         <v>316</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>895</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>896</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>897</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>93</v>
@@ -4954,7 +4946,7 @@
   <sheetPr>
     <tabColor rgb="FCE94F"/>
   </sheetPr>
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="3.0" state="frozen" topLeftCell="B4" activePane="bottomRight"/>
@@ -4974,39 +4966,39 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>886</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="2"/>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>909</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -5019,13 +5011,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="6">
@@ -5033,13 +5025,13 @@
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="7">
@@ -5047,13 +5039,13 @@
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="8">
@@ -5061,13 +5053,13 @@
         <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="9">
@@ -5075,13 +5067,13 @@
         <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="10">
@@ -5089,13 +5081,13 @@
         <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="11">
@@ -5103,13 +5095,13 @@
         <v>37</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="12">
@@ -5117,13 +5109,13 @@
         <v>31</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="13">
@@ -5131,13 +5123,13 @@
         <v>35</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="14">
@@ -5145,13 +5137,13 @@
         <v>29</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="15">
@@ -5159,13 +5151,13 @@
         <v>21</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="16">
@@ -5173,13 +5165,13 @@
         <v>40</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="17">
@@ -5187,13 +5179,13 @@
         <v>34</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="18">
@@ -5201,13 +5193,13 @@
         <v>39</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="19">
@@ -5215,13 +5207,13 @@
         <v>33</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="20">
@@ -5229,13 +5221,13 @@
         <v>41</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="21">
@@ -5243,13 +5235,13 @@
         <v>62</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="22">
@@ -5257,13 +5249,13 @@
         <v>78</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="23">
@@ -5271,13 +5263,13 @@
         <v>71</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="24">
@@ -5285,13 +5277,13 @@
         <v>80</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="25">
@@ -5299,13 +5291,13 @@
         <v>74</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="26">
@@ -5313,13 +5305,13 @@
         <v>82</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
     </row>
     <row r="27">
@@ -5327,13 +5319,13 @@
         <v>76</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="28">
@@ -5341,13 +5333,13 @@
         <v>83</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="29">
@@ -5355,13 +5347,13 @@
         <v>77</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="30">
@@ -5369,13 +5361,13 @@
         <v>60</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="31">
@@ -5383,13 +5375,13 @@
         <v>65</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="32">
@@ -5397,13 +5389,13 @@
         <v>69</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="33">
@@ -5411,13 +5403,13 @@
         <v>44</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="34">
@@ -5425,13 +5417,13 @@
         <v>67</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="35">
@@ -5439,13 +5431,13 @@
         <v>51</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="36">
@@ -5453,13 +5445,13 @@
         <v>47</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="37">
@@ -5467,13 +5459,13 @@
         <v>49</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="38">
@@ -5481,13 +5473,13 @@
         <v>58</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="39">
@@ -5495,13 +5487,13 @@
         <v>53</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="40">
@@ -5509,13 +5501,13 @@
         <v>56</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="41">
@@ -5523,13 +5515,13 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="42"/>
@@ -5539,13 +5531,13 @@
         <v>69</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.0</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="45">
@@ -5555,406 +5547,407 @@
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>923</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="3" t="s">
-        <v>921</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>817</v>
+      <c r="A47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>912</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>913</v>
+        <v>920</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>912</v>
+        <v>920</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>916</v>
@@ -5963,82 +5956,82 @@
         <v>0.0</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>920</v>
@@ -6047,35 +6040,21 @@
         <v>0.0</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="C82" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
   </sheetData>
@@ -6122,7 +6101,7 @@
         <v>93</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="3" ht="45.0" customHeight="true">
@@ -6130,7 +6109,7 @@
         <v>109</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -20546,7 +20525,7 @@
         <v>93</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>93</v>
@@ -20733,16 +20712,16 @@
         <v>93</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>93</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="S4" s="2" t="s">
         <v>93</v>
@@ -20926,7 +20905,7 @@
         <v>93</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>334</v>
+        <v>93</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>93</v>
@@ -20976,19 +20955,19 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>338</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>93</v>
@@ -21000,7 +20979,7 @@
         <v>3.0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>316</v>
@@ -21071,10 +21050,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>341</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>92</v>
@@ -21086,7 +21065,7 @@
         <v>312</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>321</v>
@@ -21095,7 +21074,7 @@
         <v>2.0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>316</v>
@@ -21113,7 +21092,7 @@
         <v>93</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>93</v>
@@ -21122,7 +21101,7 @@
         <v>93</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="S8" s="2" t="s">
         <v>93</v>
@@ -21166,19 +21145,19 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>345</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>347</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>93</v>
@@ -21190,7 +21169,7 @@
         <v>3.0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>316</v>
@@ -21261,10 +21240,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>92</v>
@@ -21273,7 +21252,7 @@
         <v>156</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>93</v>
@@ -21285,7 +21264,7 @@
         <v>2.0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>316</v>
@@ -21306,7 +21285,7 @@
         <v>93</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>93</v>
@@ -21356,19 +21335,19 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>354</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>356</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>313</v>
@@ -21380,7 +21359,7 @@
         <v>1.0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>316</v>
@@ -21401,7 +21380,7 @@
         <v>93</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>93</v>
@@ -21451,22 +21430,22 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>359</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>329</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>321</v>
@@ -21475,7 +21454,7 @@
         <v>2.0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>316</v>
@@ -21496,7 +21475,7 @@
         <v>93</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>93</v>
@@ -21546,10 +21525,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>92</v>
@@ -21558,7 +21537,7 @@
         <v>161</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>93</v>
@@ -21570,7 +21549,7 @@
         <v>2.0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>316</v>
@@ -21591,7 +21570,7 @@
         <v>93</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>93</v>
@@ -21641,16 +21620,16 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>367</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>320</v>
@@ -21665,7 +21644,7 @@
         <v>3.0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>316</v>
@@ -21686,7 +21665,7 @@
         <v>93</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>93</v>
@@ -21736,10 +21715,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>371</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>92</v>
@@ -21748,7 +21727,7 @@
         <v>164</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>93</v>
@@ -21760,7 +21739,7 @@
         <v>2.0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>316</v>
@@ -21781,7 +21760,7 @@
         <v>93</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>93</v>
@@ -21831,10 +21810,10 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>374</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>92</v>
@@ -21843,7 +21822,7 @@
         <v>165</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>93</v>
@@ -21855,7 +21834,7 @@
         <v>2.0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>316</v>
@@ -21888,7 +21867,7 @@
         <v>93</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="U16" s="2" t="n">
         <v>309.0</v>
@@ -21926,10 +21905,10 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>378</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>92</v>
@@ -21938,7 +21917,7 @@
         <v>166</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>93</v>
@@ -21950,7 +21929,7 @@
         <v>3.0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>316</v>
@@ -21971,13 +21950,13 @@
         <v>93</v>
       </c>
       <c r="P17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="R17" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="S17" s="2" t="s">
         <v>93</v>
@@ -22021,16 +22000,16 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>382</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>320</v>
@@ -22045,7 +22024,7 @@
         <v>1.0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>316</v>
@@ -22066,7 +22045,7 @@
         <v>93</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>93</v>
@@ -22116,10 +22095,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>386</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>92</v>
@@ -22128,7 +22107,7 @@
         <v>169</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>93</v>
@@ -22140,7 +22119,7 @@
         <v>3.0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>316</v>
@@ -22211,19 +22190,19 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>391</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>93</v>
@@ -22235,7 +22214,7 @@
         <v>2.0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>316</v>
@@ -22306,16 +22285,16 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>320</v>
@@ -22330,7 +22309,7 @@
         <v>3.0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>316</v>
@@ -22351,7 +22330,7 @@
         <v>93</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>93</v>
@@ -22401,19 +22380,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>93</v>
@@ -22446,7 +22425,7 @@
         <v>93</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q22" s="2" t="s">
         <v>93</v>
@@ -22496,10 +22475,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>92</v>
@@ -22591,19 +22570,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>403</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>93</v>
@@ -22686,10 +22665,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>92</v>
@@ -22731,7 +22710,7 @@
         <v>93</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q25" s="2" t="s">
         <v>93</v>
@@ -22781,10 +22760,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>408</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>95</v>
@@ -22793,7 +22772,7 @@
         <v>180</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>93</v>
@@ -22805,7 +22784,7 @@
         <v>2.0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>316</v>
@@ -22876,10 +22855,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>410</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>95</v>
@@ -22900,7 +22879,7 @@
         <v>1.0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>316</v>
@@ -22921,7 +22900,7 @@
         <v>93</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q27" s="2" t="s">
         <v>93</v>
@@ -22971,10 +22950,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>95</v>
@@ -22983,7 +22962,7 @@
         <v>182</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>93</v>
@@ -22995,7 +22974,7 @@
         <v>1.0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>316</v>
@@ -23066,19 +23045,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>414</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>93</v>
@@ -23090,7 +23069,7 @@
         <v>1.0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>316</v>
@@ -23111,7 +23090,7 @@
         <v>93</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>334</v>
+        <v>93</v>
       </c>
       <c r="Q29" s="2" t="s">
         <v>93</v>
@@ -23161,19 +23140,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>417</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>93</v>
@@ -23185,7 +23164,7 @@
         <v>2.0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>316</v>
@@ -23256,19 +23235,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>422</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>93</v>
@@ -23280,7 +23259,7 @@
         <v>1.0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>316</v>
@@ -23301,7 +23280,7 @@
         <v>93</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q31" s="2" t="s">
         <v>93</v>
@@ -23351,10 +23330,10 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>95</v>
@@ -23363,7 +23342,7 @@
         <v>189</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>93</v>
@@ -23375,7 +23354,7 @@
         <v>3.0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>316</v>
@@ -23396,7 +23375,7 @@
         <v>93</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q32" s="2" t="s">
         <v>93</v>
@@ -23446,16 +23425,16 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>426</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>312</v>
@@ -23470,7 +23449,7 @@
         <v>3.0</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>316</v>
@@ -23541,10 +23520,10 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>429</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>95</v>
@@ -23553,10 +23532,10 @@
         <v>192</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>314</v>
@@ -23565,7 +23544,7 @@
         <v>3.0</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>316</v>
@@ -23636,10 +23615,10 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>95</v>
@@ -23648,7 +23627,7 @@
         <v>193</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>93</v>
@@ -23660,7 +23639,7 @@
         <v>2.0</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>316</v>
@@ -23681,7 +23660,7 @@
         <v>93</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q35" s="2" t="s">
         <v>93</v>
@@ -23731,19 +23710,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>434</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>93</v>
@@ -23755,7 +23734,7 @@
         <v>3.0</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>316</v>
@@ -23826,10 +23805,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>437</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>95</v>
@@ -23838,7 +23817,7 @@
         <v>196</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>93</v>
@@ -23850,7 +23829,7 @@
         <v>3.0</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>316</v>
@@ -23921,10 +23900,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>440</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>95</v>
@@ -23933,10 +23912,10 @@
         <v>197</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>325</v>
@@ -23945,7 +23924,7 @@
         <v>2.0</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>316</v>
@@ -23966,13 +23945,13 @@
         <v>93</v>
       </c>
       <c r="P38" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="R38" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>93</v>
@@ -24016,10 +23995,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>95</v>
@@ -24028,7 +24007,7 @@
         <v>198</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>93</v>
@@ -24040,7 +24019,7 @@
         <v>3.0</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>316</v>
@@ -24111,10 +24090,10 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>445</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>95</v>
@@ -24123,7 +24102,7 @@
         <v>199</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>93</v>
@@ -24135,7 +24114,7 @@
         <v>3.0</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>316</v>
@@ -24206,19 +24185,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>448</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>93</v>
@@ -24230,7 +24209,7 @@
         <v>1.0</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>316</v>
@@ -24251,13 +24230,13 @@
         <v>93</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>334</v>
+        <v>93</v>
       </c>
       <c r="Q41" s="2" t="s">
         <v>93</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="S41" s="2" t="s">
         <v>93</v>
@@ -24301,10 +24280,10 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>452</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>95</v>
@@ -24313,7 +24292,7 @@
         <v>202</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>93</v>
@@ -24346,7 +24325,7 @@
         <v>93</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q42" s="2" t="s">
         <v>93</v>
@@ -24396,16 +24375,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>455</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>312</v>
@@ -24491,16 +24470,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>458</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>329</v>
@@ -24533,7 +24512,7 @@
         <v>93</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>93</v>
@@ -24542,7 +24521,7 @@
         <v>93</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="S44" s="2" t="s">
         <v>93</v>
@@ -24586,10 +24565,10 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>461</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>95</v>
@@ -24610,7 +24589,7 @@
         <v>2.0</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>316</v>
@@ -24681,19 +24660,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>463</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>93</v>
@@ -24705,7 +24684,7 @@
         <v>3.0</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>316</v>
@@ -24726,7 +24705,7 @@
         <v>93</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="Q46" s="2" t="s">
         <v>93</v>
@@ -24776,10 +24755,10 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>466</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>95</v>
@@ -24788,7 +24767,7 @@
         <v>210</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>93</v>
@@ -24800,7 +24779,7 @@
         <v>3.0</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>316</v>
@@ -24871,10 +24850,10 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>467</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>468</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>95</v>
@@ -24883,10 +24862,10 @@
         <v>211</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>314</v>
@@ -24895,7 +24874,7 @@
         <v>3.0</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>316</v>
@@ -24916,7 +24895,7 @@
         <v>93</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q48" s="2" t="s">
         <v>93</v>
@@ -24966,19 +24945,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>472</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>93</v>
@@ -24990,7 +24969,7 @@
         <v>3.0</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>316</v>
@@ -25061,16 +25040,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>474</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>475</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>320</v>
@@ -25085,7 +25064,7 @@
         <v>2.0</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>316</v>
@@ -25106,7 +25085,7 @@
         <v>93</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q50" s="2" t="s">
         <v>93</v>
@@ -25156,19 +25135,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>478</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>93</v>
@@ -25180,7 +25159,7 @@
         <v>2.0</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>316</v>
@@ -25251,10 +25230,10 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>480</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>481</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>95</v>
@@ -25263,7 +25242,7 @@
         <v>219</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>93</v>
@@ -25275,7 +25254,7 @@
         <v>1.0</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J52" s="2" t="s">
         <v>316</v>
@@ -25296,7 +25275,7 @@
         <v>93</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q52" s="2" t="s">
         <v>93</v>
@@ -25346,10 +25325,10 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>482</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>483</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>95</v>
@@ -25370,7 +25349,7 @@
         <v>3.0</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>316</v>
@@ -25391,7 +25370,7 @@
         <v>93</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q53" s="2" t="s">
         <v>93</v>
@@ -25441,10 +25420,10 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>95</v>
@@ -25453,7 +25432,7 @@
         <v>221</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>93</v>
@@ -25465,7 +25444,7 @@
         <v>1.0</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>316</v>
@@ -25536,10 +25515,10 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>487</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>488</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>95</v>
@@ -25548,7 +25527,7 @@
         <v>222</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>93</v>
@@ -25560,7 +25539,7 @@
         <v>1.0</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>316</v>
@@ -25584,10 +25563,10 @@
         <v>93</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="S55" s="2" t="s">
         <v>93</v>
@@ -25631,19 +25610,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>489</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>490</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D56" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>491</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>492</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>93</v>
@@ -25655,7 +25634,7 @@
         <v>2.0</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>316</v>
@@ -25676,7 +25655,7 @@
         <v>93</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="Q56" s="2" t="s">
         <v>93</v>
@@ -25726,19 +25705,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>494</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>495</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>496</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>93</v>
@@ -25750,7 +25729,7 @@
         <v>3.0</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J57" s="2" t="s">
         <v>316</v>
@@ -25771,7 +25750,7 @@
         <v>93</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q57" s="2" t="s">
         <v>93</v>
@@ -25821,10 +25800,10 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>497</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>498</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>95</v>
@@ -25833,10 +25812,10 @@
         <v>228</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>314</v>
@@ -25845,7 +25824,7 @@
         <v>3.0</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>316</v>
@@ -25866,7 +25845,7 @@
         <v>93</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q58" s="2" t="s">
         <v>93</v>
@@ -25916,22 +25895,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>499</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>500</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>501</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>502</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>321</v>
@@ -25940,7 +25919,7 @@
         <v>2.0</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>316</v>
@@ -25961,7 +25940,7 @@
         <v>93</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q59" s="2" t="s">
         <v>93</v>
@@ -26011,16 +25990,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>504</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>312</v>
@@ -26035,7 +26014,7 @@
         <v>2.0</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J60" s="2" t="s">
         <v>316</v>
@@ -26056,7 +26035,7 @@
         <v>93</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q60" s="2" t="s">
         <v>93</v>
@@ -26106,10 +26085,10 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>506</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>507</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>95</v>
@@ -26118,7 +26097,7 @@
         <v>233</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>93</v>
@@ -26148,7 +26127,7 @@
         <v>93</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="P61" s="2" t="s">
         <v>93</v>
@@ -26157,7 +26136,7 @@
         <v>93</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="S61" s="2" t="s">
         <v>93</v>
@@ -26201,10 +26180,10 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>508</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>509</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>95</v>
@@ -26213,10 +26192,10 @@
         <v>234</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>321</v>
@@ -26296,19 +26275,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>510</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>511</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>512</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>513</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>313</v>
@@ -26341,7 +26320,7 @@
         <v>93</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>334</v>
+        <v>93</v>
       </c>
       <c r="Q63" s="2" t="s">
         <v>93</v>
@@ -26391,10 +26370,10 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>514</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>515</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>95</v>
@@ -26403,7 +26382,7 @@
         <v>237</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>93</v>
@@ -26415,7 +26394,7 @@
         <v>3.0</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>316</v>
@@ -26436,7 +26415,7 @@
         <v>93</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q64" s="2" t="s">
         <v>93</v>
@@ -26486,19 +26465,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>517</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>93</v>
@@ -26510,7 +26489,7 @@
         <v>1.0</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>316</v>
@@ -26581,10 +26560,10 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>519</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>520</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>95</v>
@@ -26593,7 +26572,7 @@
         <v>240</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>93</v>
@@ -26605,7 +26584,7 @@
         <v>3.0</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>316</v>
@@ -26676,22 +26655,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>521</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>522</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>524</v>
-      </c>
       <c r="F67" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>321</v>
@@ -26700,7 +26679,7 @@
         <v>3.0</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>316</v>
@@ -26721,7 +26700,7 @@
         <v>93</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="Q67" s="2" t="s">
         <v>93</v>
@@ -26771,10 +26750,10 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>526</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>95</v>
@@ -26783,10 +26762,10 @@
         <v>244</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>321</v>
@@ -26795,7 +26774,7 @@
         <v>1.0</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>316</v>
@@ -26866,10 +26845,10 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>527</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>528</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>95</v>
@@ -26878,7 +26857,7 @@
         <v>245</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>93</v>
@@ -26890,7 +26869,7 @@
         <v>2.0</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J69" s="2" t="s">
         <v>316</v>
@@ -26961,10 +26940,10 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>530</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>531</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>95</v>
@@ -26973,7 +26952,7 @@
         <v>246</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>93</v>
@@ -26985,7 +26964,7 @@
         <v>3.0</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>316</v>
@@ -27006,7 +26985,7 @@
         <v>93</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q70" s="2" t="s">
         <v>93</v>
@@ -27056,19 +27035,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>532</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>533</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>534</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>535</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>93</v>
@@ -27080,7 +27059,7 @@
         <v>3.0</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>316</v>
@@ -27110,7 +27089,7 @@
         <v>93</v>
       </c>
       <c r="S71" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="T71" s="2" t="s">
         <v>93</v>
@@ -27151,10 +27130,10 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>537</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>538</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>95</v>
@@ -27163,10 +27142,10 @@
         <v>249</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>314</v>
@@ -27175,7 +27154,7 @@
         <v>3.0</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>316</v>
@@ -27205,7 +27184,7 @@
         <v>93</v>
       </c>
       <c r="S72" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="T72" s="2" t="s">
         <v>93</v>
@@ -27246,10 +27225,10 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>539</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>540</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>95</v>
@@ -27258,7 +27237,7 @@
         <v>250</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>93</v>
@@ -27270,7 +27249,7 @@
         <v>1.0</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>316</v>
@@ -27341,19 +27320,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>541</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>542</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>93</v>
@@ -27365,7 +27344,7 @@
         <v>1.0</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>316</v>
@@ -27386,7 +27365,7 @@
         <v>93</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="Q74" s="2" t="s">
         <v>93</v>
@@ -27436,10 +27415,10 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>544</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>545</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>95</v>
@@ -27448,7 +27427,7 @@
         <v>253</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>93</v>
@@ -27460,7 +27439,7 @@
         <v>1.0</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>316</v>
@@ -27481,7 +27460,7 @@
         <v>93</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>334</v>
+        <v>93</v>
       </c>
       <c r="Q75" s="2" t="s">
         <v>93</v>
@@ -27531,10 +27510,10 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>546</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>547</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>95</v>
@@ -27543,7 +27522,7 @@
         <v>254</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>93</v>
@@ -27555,7 +27534,7 @@
         <v>2.0</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J76" s="2" t="s">
         <v>316</v>
@@ -27576,7 +27555,7 @@
         <v>93</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q76" s="2" t="s">
         <v>93</v>
@@ -27626,10 +27605,10 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>549</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>550</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>95</v>
@@ -27638,7 +27617,7 @@
         <v>255</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>313</v>
@@ -27650,7 +27629,7 @@
         <v>2.0</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>316</v>
@@ -27721,19 +27700,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>552</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>93</v>
@@ -27745,7 +27724,7 @@
         <v>2.0</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>316</v>
@@ -27816,10 +27795,10 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>554</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>555</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>95</v>
@@ -27861,7 +27840,7 @@
         <v>93</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q79" s="2" t="s">
         <v>93</v>
@@ -27911,19 +27890,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>556</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>557</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>93</v>
@@ -27956,7 +27935,7 @@
         <v>93</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>93</v>
@@ -28006,10 +27985,10 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>559</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>560</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>95</v>
@@ -28101,10 +28080,10 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>561</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>562</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>95</v>
@@ -28113,7 +28092,7 @@
         <v>262</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>93</v>
@@ -28196,10 +28175,10 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>563</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>564</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>95</v>
@@ -28208,7 +28187,7 @@
         <v>263</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>93</v>
@@ -28220,7 +28199,7 @@
         <v>3.0</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>316</v>
@@ -28291,10 +28270,10 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>565</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>566</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>95</v>
@@ -28303,7 +28282,7 @@
         <v>264</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>93</v>
@@ -28315,7 +28294,7 @@
         <v>2.0</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>316</v>
@@ -28336,7 +28315,7 @@
         <v>93</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="Q84" s="2" t="s">
         <v>93</v>
@@ -28386,10 +28365,10 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>567</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>568</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>95</v>
@@ -28410,7 +28389,7 @@
         <v>1.0</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>316</v>
@@ -28431,7 +28410,7 @@
         <v>93</v>
       </c>
       <c r="P85" s="2" t="s">
-        <v>334</v>
+        <v>93</v>
       </c>
       <c r="Q85" s="2" t="s">
         <v>93</v>
@@ -28481,10 +28460,10 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>569</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>570</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>95</v>
@@ -28493,7 +28472,7 @@
         <v>266</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>93</v>
@@ -28505,7 +28484,7 @@
         <v>1.0</v>
       </c>
       <c r="I86" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>316</v>
@@ -28526,7 +28505,7 @@
         <v>93</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q86" s="2" t="s">
         <v>93</v>
@@ -28576,19 +28555,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>93</v>
@@ -28600,7 +28579,7 @@
         <v>1.0</v>
       </c>
       <c r="I87" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>316</v>
@@ -28671,10 +28650,10 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>574</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>575</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>95</v>
@@ -28695,7 +28674,7 @@
         <v>2.0</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>316</v>
@@ -28716,7 +28695,7 @@
         <v>93</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q88" s="2" t="s">
         <v>93</v>
@@ -28766,19 +28745,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>576</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>577</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>93</v>
@@ -28790,7 +28769,7 @@
         <v>3.0</v>
       </c>
       <c r="I89" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J89" s="2" t="s">
         <v>316</v>
@@ -28811,13 +28790,13 @@
         <v>93</v>
       </c>
       <c r="P89" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q89" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="R89" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="Q89" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="R89" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="S89" s="2" t="s">
         <v>93</v>
@@ -28861,10 +28840,10 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>579</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>580</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>95</v>
@@ -28873,10 +28852,10 @@
         <v>272</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>321</v>
@@ -28885,7 +28864,7 @@
         <v>3.0</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>316</v>
@@ -28906,7 +28885,7 @@
         <v>93</v>
       </c>
       <c r="P90" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q90" s="2" t="s">
         <v>93</v>
@@ -28956,10 +28935,10 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>581</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>582</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>95</v>
@@ -28968,7 +28947,7 @@
         <v>273</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>93</v>
@@ -28980,7 +28959,7 @@
         <v>2.0</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>316</v>
@@ -29001,7 +28980,7 @@
         <v>93</v>
       </c>
       <c r="P91" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q91" s="2" t="s">
         <v>93</v>
@@ -29051,10 +29030,10 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>583</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>584</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>95</v>
@@ -29066,7 +29045,7 @@
         <v>329</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>314</v>
@@ -29075,7 +29054,7 @@
         <v>1.0</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J92" s="2" t="s">
         <v>316</v>
@@ -29096,7 +29075,7 @@
         <v>93</v>
       </c>
       <c r="P92" s="2" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="Q92" s="2" t="s">
         <v>93</v>
@@ -29146,19 +29125,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>585</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>586</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>93</v>
@@ -29170,7 +29149,7 @@
         <v>2.0</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J93" s="2" t="s">
         <v>316</v>
@@ -29241,10 +29220,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>588</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>589</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>95</v>
@@ -29253,7 +29232,7 @@
         <v>277</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>93</v>
@@ -29265,7 +29244,7 @@
         <v>3.0</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J94" s="2" t="s">
         <v>316</v>
@@ -29286,13 +29265,13 @@
         <v>93</v>
       </c>
       <c r="P94" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q94" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="R94" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="Q94" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="R94" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="S94" s="2" t="s">
         <v>93</v>
@@ -29336,10 +29315,10 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>592</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>95</v>
@@ -29348,7 +29327,7 @@
         <v>278</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>93</v>
@@ -29360,7 +29339,7 @@
         <v>3.0</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J95" s="2" t="s">
         <v>316</v>
@@ -29381,7 +29360,7 @@
         <v>93</v>
       </c>
       <c r="P95" s="2" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="Q95" s="2" t="s">
         <v>93</v>
@@ -29431,10 +29410,10 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>593</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>594</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>95</v>
@@ -29443,7 +29422,7 @@
         <v>279</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>93</v>
@@ -29455,7 +29434,7 @@
         <v>3.0</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J96" s="2" t="s">
         <v>316</v>
@@ -29526,10 +29505,10 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>595</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>596</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>95</v>
@@ -29550,7 +29529,7 @@
         <v>3.0</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J97" s="2" t="s">
         <v>316</v>
@@ -29571,7 +29550,7 @@
         <v>93</v>
       </c>
       <c r="P97" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q97" s="2" t="s">
         <v>93</v>
@@ -29621,19 +29600,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>597</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>598</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>93</v>
@@ -29716,19 +29695,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>600</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>601</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>93</v>
@@ -29761,7 +29740,7 @@
         <v>93</v>
       </c>
       <c r="P99" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q99" s="2" t="s">
         <v>93</v>
@@ -29811,19 +29790,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>603</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>604</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>605</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>606</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>93</v>
@@ -29856,7 +29835,7 @@
         <v>93</v>
       </c>
       <c r="P100" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q100" s="2" t="s">
         <v>93</v>
@@ -29868,7 +29847,7 @@
         <v>93</v>
       </c>
       <c r="T100" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="U100" s="2" t="n">
         <v>743.0</v>
@@ -29906,10 +29885,10 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>607</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>608</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>95</v>
@@ -29918,7 +29897,7 @@
         <v>287</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>93</v>
@@ -30001,10 +29980,10 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>609</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>610</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>95</v>
@@ -30025,7 +30004,7 @@
         <v>1.0</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J102" s="2" t="s">
         <v>316</v>
@@ -30096,10 +30075,10 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>611</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>612</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>95</v>
@@ -30108,7 +30087,7 @@
         <v>145</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>93</v>
@@ -30120,7 +30099,7 @@
         <v>3.0</v>
       </c>
       <c r="I103" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J103" s="2" t="s">
         <v>316</v>
@@ -30141,7 +30120,7 @@
         <v>93</v>
       </c>
       <c r="P103" s="2" t="s">
-        <v>334</v>
+        <v>93</v>
       </c>
       <c r="Q103" s="2" t="s">
         <v>93</v>
@@ -30191,10 +30170,10 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>613</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>614</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>95</v>
@@ -30215,7 +30194,7 @@
         <v>2.0</v>
       </c>
       <c r="I104" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J104" s="2" t="s">
         <v>316</v>
@@ -30236,7 +30215,7 @@
         <v>93</v>
       </c>
       <c r="P104" s="2" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="Q104" s="2" t="s">
         <v>93</v>
@@ -30286,10 +30265,10 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>615</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>616</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>95</v>
@@ -30298,7 +30277,7 @@
         <v>147</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>93</v>
@@ -30310,7 +30289,7 @@
         <v>1.0</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="J105" s="2" t="s">
         <v>316</v>
@@ -30381,10 +30360,10 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>617</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>618</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>95</v>
@@ -30405,7 +30384,7 @@
         <v>3.0</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J106" s="2" t="s">
         <v>316</v>
@@ -30426,7 +30405,7 @@
         <v>93</v>
       </c>
       <c r="P106" s="2" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="Q106" s="2" t="s">
         <v>93</v>
@@ -30476,19 +30455,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>619</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>620</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>93</v>
@@ -30500,7 +30479,7 @@
         <v>2.0</v>
       </c>
       <c r="I107" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>316</v>
@@ -30521,7 +30500,7 @@
         <v>93</v>
       </c>
       <c r="P107" s="2" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="Q107" s="2" t="s">
         <v>93</v>
@@ -30571,10 +30550,10 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>622</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>623</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>95</v>
@@ -30583,10 +30562,10 @@
         <v>151</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>321</v>
@@ -30595,7 +30574,7 @@
         <v>2.0</v>
       </c>
       <c r="I108" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J108" s="2" t="s">
         <v>316</v>
@@ -30616,7 +30595,7 @@
         <v>93</v>
       </c>
       <c r="P108" s="2" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="Q108" s="2" t="s">
         <v>93</v>
@@ -30666,16 +30645,16 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>624</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>625</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>329</v>
@@ -30690,7 +30669,7 @@
         <v>3.0</v>
       </c>
       <c r="I109" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J109" s="2" t="s">
         <v>316</v>
@@ -30711,7 +30690,7 @@
         <v>93</v>
       </c>
       <c r="P109" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q109" s="2" t="s">
         <v>93</v>
@@ -30761,10 +30740,10 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>627</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>628</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>95</v>
@@ -30773,7 +30752,7 @@
         <v>155</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>93</v>
@@ -30785,7 +30764,7 @@
         <v>2.0</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J110" s="2" t="s">
         <v>316</v>
@@ -30806,7 +30785,7 @@
         <v>93</v>
       </c>
       <c r="P110" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q110" s="2" t="s">
         <v>93</v>
@@ -30856,10 +30835,10 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>629</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>630</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>95</v>
@@ -30868,7 +30847,7 @@
         <v>156</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>93</v>
@@ -30880,7 +30859,7 @@
         <v>1.0</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J111" s="2" t="s">
         <v>316</v>
@@ -30901,7 +30880,7 @@
         <v>93</v>
       </c>
       <c r="P111" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q111" s="2" t="s">
         <v>93</v>
@@ -30951,19 +30930,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>632</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>633</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>93</v>
@@ -30975,7 +30954,7 @@
         <v>2.0</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>316</v>
@@ -30999,10 +30978,10 @@
         <v>93</v>
       </c>
       <c r="Q112" s="2" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="R112" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="S112" s="2" t="s">
         <v>93</v>
@@ -31046,19 +31025,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>635</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>636</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>93</v>
@@ -31070,7 +31049,7 @@
         <v>2.0</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>316</v>
@@ -31091,7 +31070,7 @@
         <v>93</v>
       </c>
       <c r="P113" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q113" s="2" t="s">
         <v>93</v>
@@ -31141,19 +31120,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>637</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>638</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>93</v>
@@ -31165,7 +31144,7 @@
         <v>3.0</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J114" s="2" t="s">
         <v>316</v>
@@ -31186,7 +31165,7 @@
         <v>93</v>
       </c>
       <c r="P114" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q114" s="2" t="s">
         <v>93</v>
@@ -31198,7 +31177,7 @@
         <v>93</v>
       </c>
       <c r="T114" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="U114" s="2" t="n">
         <v>387.0</v>
@@ -31236,10 +31215,10 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>640</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>641</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>95</v>
@@ -31248,7 +31227,7 @@
         <v>163</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>93</v>
@@ -31260,7 +31239,7 @@
         <v>1.0</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J115" s="2" t="s">
         <v>316</v>
@@ -31281,7 +31260,7 @@
         <v>93</v>
       </c>
       <c r="P115" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q115" s="2" t="s">
         <v>93</v>
@@ -31331,22 +31310,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>642</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>643</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>314</v>
@@ -31355,7 +31334,7 @@
         <v>2.0</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J116" s="2" t="s">
         <v>316</v>
@@ -31426,10 +31405,10 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>645</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>646</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>95</v>
@@ -31438,7 +31417,7 @@
         <v>166</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>93</v>
@@ -31450,7 +31429,7 @@
         <v>1.0</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>316</v>
@@ -31471,7 +31450,7 @@
         <v>93</v>
       </c>
       <c r="P117" s="2" t="s">
-        <v>334</v>
+        <v>93</v>
       </c>
       <c r="Q117" s="2" t="s">
         <v>93</v>
@@ -31521,19 +31500,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>648</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>649</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>93</v>
@@ -31578,7 +31557,7 @@
         <v>93</v>
       </c>
       <c r="T118" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="U118" s="2" t="n">
         <v>734.0</v>
@@ -31616,10 +31595,10 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>650</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>651</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>95</v>
@@ -31628,7 +31607,7 @@
         <v>169</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>93</v>
@@ -31711,10 +31690,10 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>653</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>654</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>95</v>
@@ -31756,13 +31735,13 @@
         <v>93</v>
       </c>
       <c r="P120" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q120" s="2" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="R120" s="2" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="S120" s="2" t="s">
         <v>93</v>
@@ -31806,10 +31785,10 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>655</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>656</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>95</v>
@@ -31818,7 +31797,7 @@
         <v>171</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>93</v>
@@ -31851,7 +31830,7 @@
         <v>93</v>
       </c>
       <c r="P121" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q121" s="2" t="s">
         <v>93</v>
@@ -31901,22 +31880,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>657</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>658</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>312</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>325</v>
@@ -31925,7 +31904,7 @@
         <v>1.0</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J122" s="2" t="s">
         <v>316</v>
@@ -31946,7 +31925,7 @@
         <v>93</v>
       </c>
       <c r="P122" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q122" s="2" t="s">
         <v>93</v>
@@ -31996,10 +31975,10 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>659</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>660</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>95</v>
@@ -32020,7 +31999,7 @@
         <v>3.0</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J123" s="2" t="s">
         <v>316</v>
@@ -32091,10 +32070,10 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>661</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>662</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>95</v>
@@ -32103,7 +32082,7 @@
         <v>175</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>93</v>
@@ -32115,7 +32094,7 @@
         <v>1.0</v>
       </c>
       <c r="I124" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J124" s="2" t="s">
         <v>316</v>
@@ -32136,7 +32115,7 @@
         <v>93</v>
       </c>
       <c r="P124" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q124" s="2" t="s">
         <v>93</v>
@@ -32186,10 +32165,10 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>663</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>664</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>95</v>
@@ -32198,7 +32177,7 @@
         <v>176</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>93</v>
@@ -32210,7 +32189,7 @@
         <v>1.0</v>
       </c>
       <c r="I125" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J125" s="2" t="s">
         <v>316</v>
@@ -32281,16 +32260,16 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>665</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>666</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>312</v>
@@ -32305,7 +32284,7 @@
         <v>2.0</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J126" s="2" t="s">
         <v>316</v>
@@ -32326,7 +32305,7 @@
         <v>93</v>
       </c>
       <c r="P126" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q126" s="2" t="s">
         <v>93</v>
@@ -32376,10 +32355,10 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>668</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>669</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>95</v>
@@ -32388,7 +32367,7 @@
         <v>180</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>93</v>
@@ -32400,7 +32379,7 @@
         <v>2.0</v>
       </c>
       <c r="I127" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J127" s="2" t="s">
         <v>316</v>
@@ -32471,22 +32450,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>670</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>671</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>325</v>
@@ -32495,7 +32474,7 @@
         <v>2.0</v>
       </c>
       <c r="I128" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J128" s="2" t="s">
         <v>316</v>
@@ -32516,7 +32495,7 @@
         <v>93</v>
       </c>
       <c r="P128" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q128" s="2" t="s">
         <v>93</v>
@@ -32566,10 +32545,10 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>673</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>674</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>95</v>
@@ -32578,7 +32557,7 @@
         <v>183</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>93</v>
@@ -32590,7 +32569,7 @@
         <v>1.0</v>
       </c>
       <c r="I129" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J129" s="2" t="s">
         <v>316</v>
@@ -32661,10 +32640,10 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>675</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>676</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>95</v>
@@ -32673,7 +32652,7 @@
         <v>184</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>93</v>
@@ -32685,7 +32664,7 @@
         <v>3.0</v>
       </c>
       <c r="I130" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J130" s="2" t="s">
         <v>316</v>
@@ -32706,7 +32685,7 @@
         <v>93</v>
       </c>
       <c r="P130" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q130" s="2" t="s">
         <v>93</v>
@@ -32756,19 +32735,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>677</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>678</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>93</v>
@@ -32780,7 +32759,7 @@
         <v>1.0</v>
       </c>
       <c r="I131" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J131" s="2" t="s">
         <v>316</v>
@@ -32798,7 +32777,7 @@
         <v>93</v>
       </c>
       <c r="O131" s="2" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="P131" s="2" t="s">
         <v>93</v>
@@ -32807,7 +32786,7 @@
         <v>93</v>
       </c>
       <c r="R131" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="S131" s="2" t="s">
         <v>93</v>
@@ -32851,10 +32830,10 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>679</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>680</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>95</v>
@@ -32863,10 +32842,10 @@
         <v>187</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>321</v>
@@ -32875,7 +32854,7 @@
         <v>3.0</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J132" s="2" t="s">
         <v>316</v>
@@ -32896,7 +32875,7 @@
         <v>93</v>
       </c>
       <c r="P132" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q132" s="2" t="s">
         <v>93</v>
@@ -32946,10 +32925,10 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>682</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>683</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>95</v>
@@ -32958,10 +32937,10 @@
         <v>188</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>314</v>
@@ -32970,7 +32949,7 @@
         <v>3.0</v>
       </c>
       <c r="I133" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J133" s="2" t="s">
         <v>316</v>
@@ -32991,7 +32970,7 @@
         <v>93</v>
       </c>
       <c r="P133" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q133" s="2" t="s">
         <v>93</v>
@@ -33041,19 +33020,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>684</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>685</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>93</v>
@@ -33065,7 +33044,7 @@
         <v>3.0</v>
       </c>
       <c r="I134" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J134" s="2" t="s">
         <v>316</v>
@@ -33136,10 +33115,10 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>687</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>688</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>95</v>
@@ -33148,10 +33127,10 @@
         <v>191</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>314</v>
@@ -33160,7 +33139,7 @@
         <v>2.0</v>
       </c>
       <c r="I135" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J135" s="2" t="s">
         <v>316</v>
@@ -33181,7 +33160,7 @@
         <v>93</v>
       </c>
       <c r="P135" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q135" s="2" t="s">
         <v>93</v>
@@ -33231,10 +33210,10 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>690</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>691</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>95</v>
@@ -33243,7 +33222,7 @@
         <v>192</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>93</v>
@@ -33276,7 +33255,7 @@
         <v>93</v>
       </c>
       <c r="P136" s="2" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="Q136" s="2" t="s">
         <v>93</v>
@@ -33326,22 +33305,22 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>692</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>693</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>314</v>
@@ -33371,7 +33350,7 @@
         <v>93</v>
       </c>
       <c r="P137" s="2" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="Q137" s="2" t="s">
         <v>93</v>
@@ -33421,19 +33400,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>695</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>696</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>93</v>
@@ -33516,19 +33495,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>698</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>699</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D139" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>700</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>701</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>93</v>
@@ -33561,7 +33540,7 @@
         <v>93</v>
       </c>
       <c r="P139" s="2" t="s">
-        <v>334</v>
+        <v>93</v>
       </c>
       <c r="Q139" s="2" t="s">
         <v>93</v>
@@ -33611,10 +33590,10 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>702</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>703</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>95</v>
@@ -33623,7 +33602,7 @@
         <v>199</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>93</v>
@@ -33656,7 +33635,7 @@
         <v>93</v>
       </c>
       <c r="P140" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q140" s="2" t="s">
         <v>93</v>
@@ -33706,19 +33685,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>704</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>705</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>93</v>
@@ -33730,7 +33709,7 @@
         <v>3.0</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J141" s="2" t="s">
         <v>316</v>
@@ -33748,7 +33727,7 @@
         <v>93</v>
       </c>
       <c r="O141" s="2" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="P141" s="2" t="s">
         <v>93</v>
@@ -33757,7 +33736,7 @@
         <v>93</v>
       </c>
       <c r="R141" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="S141" s="2" t="s">
         <v>93</v>
@@ -33801,10 +33780,10 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>706</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>707</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>95</v>
@@ -33816,7 +33795,7 @@
         <v>320</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>325</v>
@@ -33825,7 +33804,7 @@
         <v>3.0</v>
       </c>
       <c r="I142" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J142" s="2" t="s">
         <v>316</v>
@@ -33846,7 +33825,7 @@
         <v>93</v>
       </c>
       <c r="P142" s="2" t="s">
-        <v>334</v>
+        <v>93</v>
       </c>
       <c r="Q142" s="2" t="s">
         <v>93</v>
@@ -33896,10 +33875,10 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>708</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>709</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>95</v>
@@ -33908,7 +33887,7 @@
         <v>203</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>93</v>
@@ -33920,7 +33899,7 @@
         <v>2.0</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J143" s="2" t="s">
         <v>316</v>
@@ -33991,10 +33970,10 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>710</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>711</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>95</v>
@@ -34015,7 +33994,7 @@
         <v>3.0</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J144" s="2" t="s">
         <v>316</v>
@@ -34086,10 +34065,10 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>712</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>713</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>95</v>
@@ -34098,7 +34077,7 @@
         <v>205</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>93</v>
@@ -34110,7 +34089,7 @@
         <v>3.0</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J145" s="2" t="s">
         <v>316</v>
@@ -34131,7 +34110,7 @@
         <v>93</v>
       </c>
       <c r="P145" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q145" s="2" t="s">
         <v>93</v>
@@ -34181,10 +34160,10 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>714</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>715</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>95</v>
@@ -34205,7 +34184,7 @@
         <v>1.0</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J146" s="2" t="s">
         <v>316</v>
@@ -34226,7 +34205,7 @@
         <v>93</v>
       </c>
       <c r="P146" s="2" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="Q146" s="2" t="s">
         <v>93</v>
@@ -34276,10 +34255,10 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>716</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>717</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>95</v>
@@ -34288,7 +34267,7 @@
         <v>207</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>93</v>
@@ -34300,7 +34279,7 @@
         <v>3.0</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J147" s="2" t="s">
         <v>316</v>
@@ -34321,7 +34300,7 @@
         <v>93</v>
       </c>
       <c r="P147" s="2" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="Q147" s="2" t="s">
         <v>93</v>
@@ -34371,10 +34350,10 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>718</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>719</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>95</v>
@@ -34383,7 +34362,7 @@
         <v>208</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>93</v>
@@ -34395,7 +34374,7 @@
         <v>2.0</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J148" s="2" t="s">
         <v>316</v>
@@ -34466,10 +34445,10 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>720</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>721</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>95</v>
@@ -34478,7 +34457,7 @@
         <v>209</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>93</v>
@@ -34490,7 +34469,7 @@
         <v>3.0</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J149" s="2" t="s">
         <v>316</v>
@@ -34561,19 +34540,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>722</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>723</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>93</v>
@@ -34585,7 +34564,7 @@
         <v>1.0</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J150" s="2" t="s">
         <v>316</v>
@@ -34606,7 +34585,7 @@
         <v>93</v>
       </c>
       <c r="P150" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q150" s="2" t="s">
         <v>93</v>
@@ -34656,19 +34635,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>725</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>726</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>93</v>
@@ -34680,7 +34659,7 @@
         <v>1.0</v>
       </c>
       <c r="I151" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J151" s="2" t="s">
         <v>316</v>
@@ -34698,7 +34677,7 @@
         <v>93</v>
       </c>
       <c r="O151" s="2" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="P151" s="2" t="s">
         <v>93</v>
@@ -34707,7 +34686,7 @@
         <v>93</v>
       </c>
       <c r="R151" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="S151" s="2" t="s">
         <v>93</v>
@@ -34751,10 +34730,10 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>727</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>728</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>95</v>
@@ -34763,7 +34742,7 @@
         <v>214</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>93</v>
@@ -34775,7 +34754,7 @@
         <v>2.0</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J152" s="2" t="s">
         <v>316</v>
@@ -34796,7 +34775,7 @@
         <v>93</v>
       </c>
       <c r="P152" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q152" s="2" t="s">
         <v>93</v>
@@ -34846,10 +34825,10 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>729</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>730</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>95</v>
@@ -34870,7 +34849,7 @@
         <v>2.0</v>
       </c>
       <c r="I153" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J153" s="2" t="s">
         <v>316</v>
@@ -34900,7 +34879,7 @@
         <v>93</v>
       </c>
       <c r="S153" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="T153" s="2" t="s">
         <v>93</v>
@@ -34941,16 +34920,16 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>731</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>732</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>320</v>
@@ -34965,7 +34944,7 @@
         <v>3.0</v>
       </c>
       <c r="I154" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J154" s="2" t="s">
         <v>316</v>
@@ -35036,10 +35015,10 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>734</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>735</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>95</v>
@@ -35048,7 +35027,7 @@
         <v>218</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>93</v>
@@ -35081,7 +35060,7 @@
         <v>93</v>
       </c>
       <c r="P155" s="2" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="Q155" s="2" t="s">
         <v>93</v>
@@ -35131,10 +35110,10 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>736</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>737</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>95</v>
@@ -35143,7 +35122,7 @@
         <v>219</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>93</v>
@@ -35226,19 +35205,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>738</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>739</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D157" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>740</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>741</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>93</v>
@@ -35321,10 +35300,10 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>742</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>743</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>95</v>
@@ -35333,7 +35312,7 @@
         <v>222</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>93</v>
@@ -35366,13 +35345,13 @@
         <v>93</v>
       </c>
       <c r="P158" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q158" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="R158" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="Q158" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="R158" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="S158" s="2" t="s">
         <v>93</v>
@@ -35416,10 +35395,10 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>744</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>745</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>95</v>
@@ -35511,10 +35490,10 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>746</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>747</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>95</v>
@@ -35523,7 +35502,7 @@
         <v>224</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>93</v>
@@ -35535,7 +35514,7 @@
         <v>2.0</v>
       </c>
       <c r="I160" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J160" s="2" t="s">
         <v>316</v>
@@ -35556,7 +35535,7 @@
         <v>93</v>
       </c>
       <c r="P160" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q160" s="2" t="s">
         <v>93</v>
@@ -35606,19 +35585,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>748</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>749</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D161" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>750</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>751</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>93</v>
@@ -35630,7 +35609,7 @@
         <v>3.0</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J161" s="2" t="s">
         <v>316</v>
@@ -35651,7 +35630,7 @@
         <v>93</v>
       </c>
       <c r="P161" s="2" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="Q161" s="2" t="s">
         <v>93</v>
@@ -35701,10 +35680,10 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>752</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>753</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>95</v>
@@ -35713,7 +35692,7 @@
         <v>227</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>93</v>
@@ -35725,7 +35704,7 @@
         <v>3.0</v>
       </c>
       <c r="I162" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J162" s="2" t="s">
         <v>316</v>
@@ -35746,7 +35725,7 @@
         <v>93</v>
       </c>
       <c r="P162" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q162" s="2" t="s">
         <v>93</v>
@@ -35796,10 +35775,10 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>755</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>756</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>95</v>
@@ -35808,7 +35787,7 @@
         <v>228</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>93</v>
@@ -35820,7 +35799,7 @@
         <v>3.0</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J163" s="2" t="s">
         <v>316</v>
@@ -35841,7 +35820,7 @@
         <v>93</v>
       </c>
       <c r="P163" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q163" s="2" t="s">
         <v>93</v>
@@ -35891,10 +35870,10 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>758</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>759</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>95</v>
@@ -35915,7 +35894,7 @@
         <v>3.0</v>
       </c>
       <c r="I164" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J164" s="2" t="s">
         <v>316</v>
@@ -35936,7 +35915,7 @@
         <v>93</v>
       </c>
       <c r="P164" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q164" s="2" t="s">
         <v>93</v>
@@ -35986,19 +35965,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>760</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>761</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D165" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>762</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>763</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>93</v>
@@ -36010,7 +35989,7 @@
         <v>2.0</v>
       </c>
       <c r="I165" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J165" s="2" t="s">
         <v>316</v>
@@ -36031,7 +36010,7 @@
         <v>93</v>
       </c>
       <c r="P165" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q165" s="2" t="s">
         <v>93</v>
@@ -36081,19 +36060,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>764</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>765</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D166" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>766</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>767</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>93</v>
@@ -36105,7 +36084,7 @@
         <v>2.0</v>
       </c>
       <c r="I166" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J166" s="2" t="s">
         <v>316</v>
@@ -36126,7 +36105,7 @@
         <v>93</v>
       </c>
       <c r="P166" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q166" s="2" t="s">
         <v>93</v>
@@ -36176,10 +36155,10 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>768</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>769</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>95</v>
@@ -36191,7 +36170,7 @@
         <v>320</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>325</v>
@@ -36200,7 +36179,7 @@
         <v>1.0</v>
       </c>
       <c r="I167" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J167" s="2" t="s">
         <v>316</v>
@@ -36221,7 +36200,7 @@
         <v>93</v>
       </c>
       <c r="P167" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q167" s="2" t="s">
         <v>93</v>
@@ -36271,22 +36250,22 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>770</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>771</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G168" s="2" t="s">
         <v>325</v>
@@ -36295,7 +36274,7 @@
         <v>1.0</v>
       </c>
       <c r="I168" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J168" s="2" t="s">
         <v>316</v>
@@ -36316,7 +36295,7 @@
         <v>93</v>
       </c>
       <c r="P168" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q168" s="2" t="s">
         <v>93</v>
@@ -36366,10 +36345,10 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>773</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>774</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>95</v>
@@ -36378,7 +36357,7 @@
         <v>238</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>93</v>
@@ -36390,7 +36369,7 @@
         <v>3.0</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J169" s="2" t="s">
         <v>316</v>
@@ -36461,10 +36440,10 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>775</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>776</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>95</v>
@@ -36485,7 +36464,7 @@
         <v>2.0</v>
       </c>
       <c r="I170" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J170" s="2" t="s">
         <v>316</v>
@@ -36556,10 +36535,10 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>777</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>778</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>95</v>
@@ -36568,7 +36547,7 @@
         <v>240</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>93</v>
@@ -36580,7 +36559,7 @@
         <v>2.0</v>
       </c>
       <c r="I171" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J171" s="2" t="s">
         <v>316</v>
@@ -36651,10 +36630,10 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>779</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>780</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>95</v>
@@ -36663,10 +36642,10 @@
         <v>241</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G172" s="2" t="s">
         <v>325</v>
@@ -36675,7 +36654,7 @@
         <v>2.0</v>
       </c>
       <c r="I172" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J172" s="2" t="s">
         <v>316</v>
@@ -36696,7 +36675,7 @@
         <v>93</v>
       </c>
       <c r="P172" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q172" s="2" t="s">
         <v>93</v>
@@ -36746,10 +36725,10 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>781</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>782</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>95</v>
@@ -36758,7 +36737,7 @@
         <v>242</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>93</v>
@@ -36770,7 +36749,7 @@
         <v>2.0</v>
       </c>
       <c r="I173" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J173" s="2" t="s">
         <v>316</v>
@@ -36791,7 +36770,7 @@
         <v>93</v>
       </c>
       <c r="P173" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q173" s="2" t="s">
         <v>93</v>
@@ -36841,16 +36820,16 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>783</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>784</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>320</v>
@@ -36865,7 +36844,7 @@
         <v>2.0</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J174" s="2" t="s">
         <v>316</v>
@@ -36936,10 +36915,10 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>786</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>787</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>95</v>
@@ -36948,7 +36927,7 @@
         <v>245</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>93</v>
@@ -36981,7 +36960,7 @@
         <v>93</v>
       </c>
       <c r="P175" s="2" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="Q175" s="2" t="s">
         <v>93</v>
@@ -37031,10 +37010,10 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>788</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>789</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>95</v>
@@ -37043,7 +37022,7 @@
         <v>246</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>93</v>
@@ -37126,19 +37105,19 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>790</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>791</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>93</v>
@@ -37221,10 +37200,10 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>793</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>794</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>95</v>
@@ -37233,7 +37212,7 @@
         <v>251</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>93</v>
@@ -37266,7 +37245,7 @@
         <v>93</v>
       </c>
       <c r="P178" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q178" s="2" t="s">
         <v>93</v>
@@ -37316,10 +37295,10 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>796</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>797</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>95</v>
@@ -37340,7 +37319,7 @@
         <v>3.0</v>
       </c>
       <c r="I179" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J179" s="2" t="s">
         <v>316</v>
@@ -37361,7 +37340,7 @@
         <v>93</v>
       </c>
       <c r="P179" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q179" s="2" t="s">
         <v>93</v>
@@ -37411,10 +37390,10 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>798</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>799</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>95</v>
@@ -37423,10 +37402,10 @@
         <v>253</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G180" s="2" t="s">
         <v>321</v>
@@ -37435,7 +37414,7 @@
         <v>3.0</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J180" s="2" t="s">
         <v>316</v>
@@ -37456,7 +37435,7 @@
         <v>93</v>
       </c>
       <c r="P180" s="2" t="s">
-        <v>334</v>
+        <v>93</v>
       </c>
       <c r="Q180" s="2" t="s">
         <v>93</v>
@@ -37506,19 +37485,19 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>800</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>801</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>93</v>
@@ -37530,7 +37509,7 @@
         <v>3.0</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J181" s="2" t="s">
         <v>316</v>
@@ -37551,7 +37530,7 @@
         <v>93</v>
       </c>
       <c r="P181" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q181" s="2" t="s">
         <v>93</v>
@@ -37601,10 +37580,10 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>803</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>804</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>95</v>
@@ -37613,7 +37592,7 @@
         <v>258</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>93</v>
@@ -37625,7 +37604,7 @@
         <v>1.0</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J182" s="2" t="s">
         <v>316</v>
@@ -37646,7 +37625,7 @@
         <v>93</v>
       </c>
       <c r="P182" s="2" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="Q182" s="2" t="s">
         <v>93</v>
@@ -37696,10 +37675,10 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>805</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>806</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>95</v>
@@ -37708,7 +37687,7 @@
         <v>259</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>93</v>
@@ -37720,7 +37699,7 @@
         <v>3.0</v>
       </c>
       <c r="I183" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J183" s="2" t="s">
         <v>316</v>
@@ -37791,10 +37770,10 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>807</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>808</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>95</v>
@@ -37803,7 +37782,7 @@
         <v>260</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>93</v>
@@ -37815,7 +37794,7 @@
         <v>3.0</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J184" s="2" t="s">
         <v>316</v>
@@ -37836,7 +37815,7 @@
         <v>93</v>
       </c>
       <c r="P184" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q184" s="2" t="s">
         <v>93</v>
@@ -37886,10 +37865,10 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>809</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>810</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>95</v>
@@ -37910,7 +37889,7 @@
         <v>2.0</v>
       </c>
       <c r="I185" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J185" s="2" t="s">
         <v>316</v>
@@ -37931,7 +37910,7 @@
         <v>93</v>
       </c>
       <c r="P185" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q185" s="2" t="s">
         <v>93</v>
@@ -37981,10 +37960,10 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>811</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>812</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>95</v>
@@ -37993,7 +37972,7 @@
         <v>262</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>93</v>
@@ -38005,7 +37984,7 @@
         <v>3.0</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J186" s="2" t="s">
         <v>316</v>
@@ -38026,7 +38005,7 @@
         <v>93</v>
       </c>
       <c r="P186" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q186" s="2" t="s">
         <v>93</v>
@@ -38076,16 +38055,16 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>814</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>815</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>312</v>
@@ -38100,7 +38079,7 @@
         <v>1.0</v>
       </c>
       <c r="I187" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J187" s="2" t="s">
         <v>316</v>
@@ -38121,13 +38100,13 @@
         <v>93</v>
       </c>
       <c r="P187" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q187" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="R187" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="Q187" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="R187" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="S187" s="2" t="s">
         <v>93</v>
@@ -38171,16 +38150,16 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>817</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>818</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>320</v>
@@ -38195,7 +38174,7 @@
         <v>1.0</v>
       </c>
       <c r="I188" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J188" s="2" t="s">
         <v>316</v>
@@ -38216,7 +38195,7 @@
         <v>93</v>
       </c>
       <c r="P188" s="2" t="s">
-        <v>334</v>
+        <v>93</v>
       </c>
       <c r="Q188" s="2" t="s">
         <v>93</v>
@@ -38266,22 +38245,22 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>819</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>820</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G189" s="2" t="s">
         <v>314</v>
@@ -38290,7 +38269,7 @@
         <v>3.0</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J189" s="2" t="s">
         <v>316</v>
@@ -38311,7 +38290,7 @@
         <v>93</v>
       </c>
       <c r="P189" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q189" s="2" t="s">
         <v>93</v>
@@ -38361,10 +38340,10 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>822</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>823</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>95</v>
@@ -38373,7 +38352,7 @@
         <v>271</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>93</v>
@@ -38385,7 +38364,7 @@
         <v>3.0</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J190" s="2" t="s">
         <v>316</v>
@@ -38406,7 +38385,7 @@
         <v>93</v>
       </c>
       <c r="P190" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q190" s="2" t="s">
         <v>93</v>
@@ -38456,10 +38435,10 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>824</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>825</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>95</v>
@@ -38468,7 +38447,7 @@
         <v>272</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>93</v>
@@ -38480,7 +38459,7 @@
         <v>3.0</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J191" s="2" t="s">
         <v>316</v>
@@ -38551,10 +38530,10 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>827</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>828</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>95</v>
@@ -38563,7 +38542,7 @@
         <v>273</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>93</v>
@@ -38575,7 +38554,7 @@
         <v>1.0</v>
       </c>
       <c r="I192" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J192" s="2" t="s">
         <v>316</v>
@@ -38596,7 +38575,7 @@
         <v>93</v>
       </c>
       <c r="P192" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q192" s="2" t="s">
         <v>93</v>
@@ -38646,10 +38625,10 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>829</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>830</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>95</v>
@@ -38658,7 +38637,7 @@
         <v>274</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>93</v>
@@ -38741,10 +38720,10 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>831</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>832</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>95</v>
@@ -38786,7 +38765,7 @@
         <v>93</v>
       </c>
       <c r="P194" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q194" s="2" t="s">
         <v>93</v>
@@ -38836,10 +38815,10 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>833</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>834</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>95</v>
@@ -38878,7 +38857,7 @@
         <v>93</v>
       </c>
       <c r="O195" s="2" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="P195" s="2" t="s">
         <v>93</v>
@@ -38887,7 +38866,7 @@
         <v>93</v>
       </c>
       <c r="R195" s="2" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="S195" s="2" t="s">
         <v>93</v>
@@ -38931,19 +38910,19 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>835</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>836</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>93</v>
@@ -38976,7 +38955,7 @@
         <v>93</v>
       </c>
       <c r="P196" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q196" s="2" t="s">
         <v>93</v>
@@ -39026,16 +39005,16 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>838</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>839</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>312</v>
@@ -39071,7 +39050,7 @@
         <v>93</v>
       </c>
       <c r="P197" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q197" s="2" t="s">
         <v>93</v>
@@ -39121,19 +39100,19 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>841</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>842</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>93</v>
@@ -39145,7 +39124,7 @@
         <v>1.0</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J198" s="2" t="s">
         <v>316</v>
@@ -39166,7 +39145,7 @@
         <v>93</v>
       </c>
       <c r="P198" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q198" s="2" t="s">
         <v>93</v>
@@ -39216,10 +39195,10 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="B199" s="2" t="s">
         <v>843</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>844</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>95</v>
@@ -39228,7 +39207,7 @@
         <v>283</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>93</v>
@@ -39240,7 +39219,7 @@
         <v>3.0</v>
       </c>
       <c r="I199" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J199" s="2" t="s">
         <v>316</v>
@@ -39311,10 +39290,10 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>845</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>846</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>95</v>
@@ -39323,7 +39302,7 @@
         <v>284</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>93</v>
@@ -39335,7 +39314,7 @@
         <v>3.0</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J200" s="2" t="s">
         <v>316</v>
@@ -39356,7 +39335,7 @@
         <v>93</v>
       </c>
       <c r="P200" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q200" s="2" t="s">
         <v>93</v>
@@ -39406,22 +39385,22 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>847</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>848</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G201" s="2" t="s">
         <v>314</v>
@@ -39430,7 +39409,7 @@
         <v>2.0</v>
       </c>
       <c r="I201" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J201" s="2" t="s">
         <v>316</v>
@@ -39501,10 +39480,10 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>849</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>850</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>95</v>
@@ -39513,7 +39492,7 @@
         <v>287</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>93</v>
@@ -39525,7 +39504,7 @@
         <v>3.0</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J202" s="2" t="s">
         <v>316</v>
@@ -39596,16 +39575,16 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="B203" s="2" t="s">
         <v>851</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>852</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>312</v>
@@ -39620,7 +39599,7 @@
         <v>2.0</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J203" s="2" t="s">
         <v>316</v>
@@ -39691,10 +39670,10 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>854</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>855</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>95</v>
@@ -39703,7 +39682,7 @@
         <v>319</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>93</v>
@@ -39715,7 +39694,7 @@
         <v>1.0</v>
       </c>
       <c r="I204" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J204" s="2" t="s">
         <v>316</v>
@@ -39736,7 +39715,7 @@
         <v>93</v>
       </c>
       <c r="P204" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q204" s="2" t="s">
         <v>93</v>
@@ -39786,10 +39765,10 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>856</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>857</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>95</v>
@@ -39798,10 +39777,10 @@
         <v>148</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G205" s="2" t="s">
         <v>321</v>
@@ -39810,7 +39789,7 @@
         <v>1.0</v>
       </c>
       <c r="I205" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J205" s="2" t="s">
         <v>316</v>
@@ -39881,19 +39860,19 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>858</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>859</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>93</v>
@@ -39905,7 +39884,7 @@
         <v>1.0</v>
       </c>
       <c r="I206" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J206" s="2" t="s">
         <v>316</v>
@@ -39923,7 +39902,7 @@
         <v>93</v>
       </c>
       <c r="O206" s="2" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="P206" s="2" t="s">
         <v>93</v>
@@ -39932,7 +39911,7 @@
         <v>93</v>
       </c>
       <c r="R206" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="S206" s="2" t="s">
         <v>93</v>
@@ -39976,16 +39955,16 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>861</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>862</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>312</v>
@@ -40000,7 +39979,7 @@
         <v>1.0</v>
       </c>
       <c r="I207" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J207" s="2" t="s">
         <v>316</v>
@@ -40021,7 +40000,7 @@
         <v>93</v>
       </c>
       <c r="P207" s="2" t="s">
-        <v>334</v>
+        <v>93</v>
       </c>
       <c r="Q207" s="2" t="s">
         <v>93</v>
@@ -40071,19 +40050,19 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>863</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>864</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>93</v>
@@ -40095,7 +40074,7 @@
         <v>3.0</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J208" s="2" t="s">
         <v>316</v>
@@ -40166,10 +40145,10 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>866</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>867</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>95</v>
@@ -40178,7 +40157,7 @@
         <v>155</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>93</v>
@@ -40190,7 +40169,7 @@
         <v>3.0</v>
       </c>
       <c r="I209" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J209" s="2" t="s">
         <v>316</v>
@@ -40261,16 +40240,16 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>869</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>870</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>320</v>
@@ -40285,7 +40264,7 @@
         <v>2.0</v>
       </c>
       <c r="I210" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J210" s="2" t="s">
         <v>316</v>
@@ -40306,7 +40285,7 @@
         <v>93</v>
       </c>
       <c r="P210" s="2" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="Q210" s="2" t="s">
         <v>93</v>
@@ -40356,10 +40335,10 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="B211" s="2" t="s">
         <v>872</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>873</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>95</v>
@@ -40368,7 +40347,7 @@
         <v>158</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>93</v>
@@ -40380,7 +40359,7 @@
         <v>1.0</v>
       </c>
       <c r="I211" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J211" s="2" t="s">
         <v>316</v>
@@ -40401,7 +40380,7 @@
         <v>93</v>
       </c>
       <c r="P211" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q211" s="2" t="s">
         <v>93</v>
@@ -40451,10 +40430,10 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>874</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>875</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>95</v>
@@ -40463,7 +40442,7 @@
         <v>159</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>313</v>
@@ -40496,7 +40475,7 @@
         <v>93</v>
       </c>
       <c r="P212" s="2" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="Q212" s="2" t="s">
         <v>93</v>
@@ -40546,10 +40525,10 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>876</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>877</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>95</v>
@@ -40558,7 +40537,7 @@
         <v>160</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>93</v>
@@ -40591,13 +40570,13 @@
         <v>93</v>
       </c>
       <c r="P213" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q213" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="R213" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="Q213" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="R213" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="S213" s="2" t="s">
         <v>93</v>
@@ -40641,10 +40620,10 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>878</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>879</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>95</v>
@@ -40653,10 +40632,10 @@
         <v>161</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G214" s="2" t="s">
         <v>321</v>
@@ -40736,10 +40715,10 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>880</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>881</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>95</v>
@@ -40831,10 +40810,10 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>882</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>883</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>95</v>
@@ -40846,7 +40825,7 @@
         <v>320</v>
       </c>
       <c r="F216" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G216" s="2" t="s">
         <v>321</v>
@@ -40876,7 +40855,7 @@
         <v>93</v>
       </c>
       <c r="P216" s="2" t="s">
-        <v>334</v>
+        <v>93</v>
       </c>
       <c r="Q216" s="2" t="s">
         <v>93</v>
@@ -40926,10 +40905,10 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>884</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>885</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>95</v>
@@ -40938,7 +40917,7 @@
         <v>164</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>93</v>
@@ -40950,7 +40929,7 @@
         <v>3.0</v>
       </c>
       <c r="I217" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J217" s="2" t="s">
         <v>316</v>
@@ -41048,10 +41027,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>886</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="2"/>
@@ -41060,16 +41039,16 @@
         <v>291</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>890</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="4">
@@ -41109,7 +41088,7 @@
     <row r="6"/>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>216.0</v>
@@ -41310,7 +41289,7 @@
         <v>93</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>93</v>
@@ -41543,7 +41522,7 @@
         <v>120</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -42606,7 +42585,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>108</v>
@@ -43789,7 +43768,7 @@
         <v>164</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -49865,7 +49844,7 @@
         <v>93</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D125" s="10" t="s">
         <v>93</v>
@@ -49924,7 +49903,7 @@
         <v>93</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D126" s="10" t="s">
         <v>93</v>
@@ -51264,7 +51243,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>108</v>
@@ -51329,7 +51308,7 @@
         <v>93</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>93</v>
@@ -51382,10 +51361,10 @@
     </row>
     <row r="4" ht="15.0" customHeight="true">
       <c r="A4" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>93</v>
